--- a/LR3/table_1_31.xlsx
+++ b/LR3/table_1_31.xlsx
@@ -451,22 +451,22 @@
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="9.14062530925693" defaultRowHeight="14.3999996185303" zeroHeight="false"/>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="9.14062530925693" defaultRowHeight="14.3000001907349" zeroHeight="false"/>
   <cols>
-    <col customWidth="true" max="1" min="1" outlineLevel="0" width="14.5546874511004"/>
-    <col customWidth="true" max="2" min="2" outlineLevel="0" width="40.5546877894328"/>
-    <col customWidth="true" max="3" min="3" outlineLevel="0" width="17.1093755788655"/>
-    <col customWidth="true" max="4" min="4" outlineLevel="0" width="19.3320310920675"/>
-    <col customWidth="true" max="5" min="5" outlineLevel="0" width="14.3320309229013"/>
-    <col customWidth="true" max="6" min="6" outlineLevel="0" width="20.554687112768"/>
-    <col customWidth="true" max="7" min="7" outlineLevel="0" width="20.441406670933"/>
-    <col customWidth="true" max="8" min="8" outlineLevel="0" width="19.4414058251021"/>
-    <col customWidth="true" max="9" min="9" outlineLevel="0" width="22.1093743947023"/>
-    <col customWidth="true" max="10" min="10" outlineLevel="0" width="15.1093752405332"/>
-    <col customWidth="true" max="11" min="11" outlineLevel="0" width="14.8867187123341"/>
+    <col customWidth="true" max="1" min="1" outlineLevel="0" width="14.5703129929608"/>
+    <col customWidth="true" max="2" min="2" outlineLevel="0" width="40.5703133312932"/>
+    <col customWidth="true" max="3" min="3" outlineLevel="0" width="17.1406253092569"/>
+    <col customWidth="true" max="4" min="4" outlineLevel="0" width="19.2851558198157"/>
+    <col customWidth="true" max="5" min="5" outlineLevel="0" width="14.2851556506495"/>
+    <col customWidth="true" max="6" min="6" outlineLevel="0" width="20.5703126546285"/>
+    <col customWidth="true" max="7" min="7" outlineLevel="0" width="20.4257811290726"/>
+    <col customWidth="true" max="8" min="8" outlineLevel="0" width="19.4257816365712"/>
+    <col customWidth="true" max="9" min="9" outlineLevel="0" width="22.1406254784231"/>
+    <col customWidth="true" max="10" min="10" outlineLevel="0" width="15.1406249709246"/>
+    <col customWidth="true" max="11" min="11" outlineLevel="0" width="14.8554689819427"/>
   </cols>
   <sheetData>
-    <row ht="15.6000003814697" outlineLevel="0" r="1">
+    <row ht="15.6999998092651" outlineLevel="0" r="1">
       <c r="A1" s="1" t="n">
         <v>31</v>
       </c>
@@ -481,7 +481,7 @@
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="2">
+    <row ht="15.6999998092651" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -516,7 +516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="3">
+    <row ht="15.6999998092651" outlineLevel="0" r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
@@ -556,7 +556,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="4">
+    <row ht="15.6999998092651" outlineLevel="0" r="4">
       <c r="A4" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A3+1</f>
         <v>2</v>
@@ -601,7 +601,7 @@
         <v>2369.95</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="5">
+    <row ht="15.6999998092651" outlineLevel="0" r="5">
       <c r="A5" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A4+1</f>
         <v>3</v>
@@ -646,7 +646,7 @@
         <v>2352.9</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="6">
+    <row ht="15.6999998092651" outlineLevel="0" r="6">
       <c r="A6" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A5+1</f>
         <v>4</v>
@@ -691,7 +691,7 @@
         <v>2335.85</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="7">
+    <row ht="15.6999998092651" outlineLevel="0" r="7">
       <c r="A7" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A6+1</f>
         <v>5</v>
@@ -736,7 +736,7 @@
         <v>2318.8</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="8">
+    <row ht="15.6999998092651" outlineLevel="0" r="8">
       <c r="A8" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A7+1</f>
         <v>6</v>
@@ -781,7 +781,7 @@
         <v>2301.75</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="9">
+    <row ht="15.6999998092651" outlineLevel="0" r="9">
       <c r="A9" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A8+1</f>
         <v>7</v>
@@ -826,7 +826,7 @@
         <v>2284.7</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="10">
+    <row ht="15.6999998092651" outlineLevel="0" r="10">
       <c r="A10" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A9+1</f>
         <v>8</v>
@@ -871,7 +871,7 @@
         <v>2267.65</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="11">
+    <row ht="15.6999998092651" outlineLevel="0" r="11">
       <c r="A11" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A10+1</f>
         <v>9</v>
@@ -916,7 +916,7 @@
         <v>2250.6</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="12">
+    <row ht="15.6999998092651" outlineLevel="0" r="12">
       <c r="A12" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>10</v>
@@ -961,7 +961,7 @@
         <v>2243.55</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="13">
+    <row ht="15.6999998092651" outlineLevel="0" r="13">
       <c r="A13" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>11</v>
@@ -1006,7 +1006,7 @@
         <v>2236.5</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="14">
+    <row ht="15.6999998092651" outlineLevel="0" r="14">
       <c r="A14" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>12</v>
@@ -1051,7 +1051,7 @@
         <v>2229.45</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="15">
+    <row ht="15.6999998092651" outlineLevel="0" r="15">
       <c r="A15" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A14+1</f>
         <v>13</v>
@@ -1096,7 +1096,7 @@
         <v>2222.4</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="16">
+    <row ht="15.6999998092651" outlineLevel="0" r="16">
       <c r="A16" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A15+1</f>
         <v>14</v>
@@ -1141,7 +1141,7 @@
         <v>2215.35</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="17">
+    <row ht="15.6999998092651" outlineLevel="0" r="17">
       <c r="A17" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A16+1</f>
         <v>15</v>
@@ -1186,7 +1186,7 @@
         <v>2208.3</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="18">
+    <row ht="15.6999998092651" outlineLevel="0" r="18">
       <c r="A18" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A17+1</f>
         <v>16</v>
@@ -1231,7 +1231,7 @@
         <v>2201.25</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="19">
+    <row ht="15.6999998092651" outlineLevel="0" r="19">
       <c r="A19" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A18+1</f>
         <v>17</v>
@@ -1276,7 +1276,7 @@
         <v>2194.2</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="20">
+    <row ht="15.6999998092651" outlineLevel="0" r="20">
       <c r="A20" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A19+1</f>
         <v>18</v>
@@ -1321,7 +1321,7 @@
         <v>2187.15</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="21">
+    <row ht="15.6999998092651" outlineLevel="0" r="21">
       <c r="A21" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A20+1</f>
         <v>19</v>
@@ -1366,7 +1366,7 @@
         <v>2180.1</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="22">
+    <row ht="15.6999998092651" outlineLevel="0" r="22">
       <c r="A22" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A21+1</f>
         <v>20</v>
@@ -1411,7 +1411,7 @@
         <v>2173.05</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="23">
+    <row ht="15.6999998092651" outlineLevel="0" r="23">
       <c r="A23" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A22+1</f>
         <v>21</v>
@@ -1456,7 +1456,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="24">
+    <row ht="15.6999998092651" outlineLevel="0" r="24">
       <c r="A24" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A23+1</f>
         <v>22</v>
@@ -1501,7 +1501,7 @@
         <v>2158.95</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="25">
+    <row ht="15.6999998092651" outlineLevel="0" r="25">
       <c r="A25" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A24+1</f>
         <v>23</v>
@@ -1546,7 +1546,7 @@
         <v>2151.9</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="26">
+    <row ht="15.6999998092651" outlineLevel="0" r="26">
       <c r="A26" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A25+1</f>
         <v>24</v>
@@ -1591,7 +1591,7 @@
         <v>2144.85</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="27">
+    <row ht="15.6999998092651" outlineLevel="0" r="27">
       <c r="A27" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A26+1</f>
         <v>25</v>
@@ -1636,7 +1636,7 @@
         <v>2137.8</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="28">
+    <row ht="15.6999998092651" outlineLevel="0" r="28">
       <c r="A28" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A27+1</f>
         <v>26</v>
@@ -1681,7 +1681,7 @@
         <v>2130.75</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="29">
+    <row ht="15.6999998092651" outlineLevel="0" r="29">
       <c r="A29" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A28+1</f>
         <v>27</v>
@@ -1726,7 +1726,7 @@
         <v>2123.7</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="30">
+    <row ht="15.6999998092651" outlineLevel="0" r="30">
       <c r="A30" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A29+1</f>
         <v>28</v>
@@ -1771,7 +1771,7 @@
         <v>2116.65</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="31">
+    <row ht="15.6999998092651" outlineLevel="0" r="31">
       <c r="A31" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A30+1</f>
         <v>29</v>
@@ -1816,7 +1816,7 @@
         <v>2109.6</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="32">
+    <row ht="15.6999998092651" outlineLevel="0" r="32">
       <c r="A32" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A31+1</f>
         <v>30</v>
@@ -1861,7 +1861,7 @@
         <v>2102.55</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="33">
+    <row ht="15.6999998092651" outlineLevel="0" r="33">
       <c r="A33" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A32+1</f>
         <v>31</v>
@@ -1906,7 +1906,7 @@
         <v>2095.5</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="34">
+    <row ht="15.6999998092651" outlineLevel="0" r="34">
       <c r="A34" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A33+1</f>
         <v>32</v>
@@ -1951,7 +1951,7 @@
         <v>2088.45</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="35">
+    <row ht="15.6999998092651" outlineLevel="0" r="35">
       <c r="A35" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A34+1</f>
         <v>33</v>
@@ -1996,7 +1996,7 @@
         <v>1160.7</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="36">
+    <row ht="15.6999998092651" outlineLevel="0" r="36">
       <c r="A36" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A35+1</f>
         <v>34</v>
@@ -2041,7 +2041,7 @@
         <v>1162.175</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="37">
+    <row ht="15.6999998092651" outlineLevel="0" r="37">
       <c r="A37" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A36+1</f>
         <v>35</v>
@@ -2086,7 +2086,7 @@
         <v>1163.65</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="38">
+    <row ht="15.6999998092651" outlineLevel="0" r="38">
       <c r="A38" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A37+1</f>
         <v>36</v>
@@ -2131,7 +2131,7 @@
         <v>1165.125</v>
       </c>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="39">
+    <row ht="15.6999998092651" outlineLevel="0" r="39">
       <c r="A39" s="2" t="n"/>
       <c r="B39" s="1" t="n"/>
       <c r="C39" s="1" t="n"/>
@@ -2144,7 +2144,7 @@
       <c r="J39" s="1" t="n"/>
       <c r="K39" s="1" t="n"/>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="40">
+    <row ht="15.6999998092651" outlineLevel="0" r="40">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="s">
         <v>47</v>
@@ -2162,7 +2162,7 @@
       <c r="J40" s="1" t="n"/>
       <c r="K40" s="1" t="n"/>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="41">
+    <row ht="15.6999998092651" outlineLevel="0" r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="s">
         <v>48</v>
@@ -2180,7 +2180,7 @@
       <c r="J41" s="1" t="n"/>
       <c r="K41" s="1" t="n"/>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="42">
+    <row ht="15.6999998092651" outlineLevel="0" r="42">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="s">
         <v>49</v>
@@ -2198,7 +2198,7 @@
       <c r="J42" s="1" t="n"/>
       <c r="K42" s="1" t="n"/>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="43">
+    <row ht="15.6999998092651" outlineLevel="0" r="43">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="s">
         <v>50</v>
@@ -2216,7 +2216,7 @@
       <c r="J43" s="1" t="n"/>
       <c r="K43" s="1" t="n"/>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="44">
+    <row ht="15.6999998092651" outlineLevel="0" r="44">
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="n"/>
       <c r="C44" s="1" t="n"/>
@@ -2229,7 +2229,7 @@
       <c r="J44" s="1" t="n"/>
       <c r="K44" s="1" t="n"/>
     </row>
-    <row ht="15.6000003814697" outlineLevel="0" r="45">
+    <row ht="15.6999998092651" outlineLevel="0" r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="n"/>
       <c r="C45" s="1" t="n"/>

--- a/LR3/table_1_31.xlsx
+++ b/LR3/table_1_31.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co w14 x14 w15">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1" state="visible"/>
+    <sheet name="Лист1" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
   <definedNames/>
 </workbook>
@@ -171,8 +171,6 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co w14 x14 w15">
   <numFmts>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
-    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1001"/>
-    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1002"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -181,14 +179,14 @@
       <sz val="11"/>
     </font>
     <font>
-      <color theme="1" tint="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <color theme="1" tint="0"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="282C34" tint="0"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -216,36 +214,34 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false"/>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="14" quotePrefix="false"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1001" quotePrefix="false"/>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1002" quotePrefix="false"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="14" quotePrefix="false"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf/>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -259,7 +255,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -271,7 +267,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -283,7 +279,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
@@ -295,7 +291,7 @@
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -447,1807 +443,1789 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="9.14062530925693" defaultRowHeight="14.3000001907349" zeroHeight="false"/>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="9.57871429303676" defaultRowHeight="15.75" zeroHeight="false"/>
   <cols>
-    <col customWidth="true" max="1" min="1" outlineLevel="0" width="14.5703129929608"/>
-    <col customWidth="true" max="2" min="2" outlineLevel="0" width="40.5703133312932"/>
-    <col customWidth="true" max="3" min="3" outlineLevel="0" width="17.1406253092569"/>
-    <col customWidth="true" max="4" min="4" outlineLevel="0" width="19.2851558198157"/>
-    <col customWidth="true" max="5" min="5" outlineLevel="0" width="14.2851556506495"/>
-    <col customWidth="true" max="6" min="6" outlineLevel="0" width="20.5703126546285"/>
-    <col customWidth="true" max="7" min="7" outlineLevel="0" width="20.4257811290726"/>
-    <col customWidth="true" max="8" min="8" outlineLevel="0" width="19.4257816365712"/>
-    <col customWidth="true" max="9" min="9" outlineLevel="0" width="22.1406254784231"/>
-    <col customWidth="true" max="10" min="10" outlineLevel="0" width="15.1406249709246"/>
-    <col customWidth="true" max="11" min="11" outlineLevel="0" width="14.8554689819427"/>
+    <col customWidth="true" max="1" min="1" outlineLevel="0" style="1" width="15.9645238217279"/>
+    <col customWidth="true" max="2" min="2" outlineLevel="0" width="35.9201785988879"/>
+    <col customWidth="true" max="3" min="3" outlineLevel="0" width="25.8093135117935"/>
+    <col customWidth="true" max="4" min="4" outlineLevel="0" width="16.6297123142999"/>
+    <col customWidth="true" max="5" min="5" outlineLevel="0" width="14.6341468365839"/>
+    <col customWidth="true" max="6" min="6" outlineLevel="0" width="18.2261646964727"/>
+    <col customWidth="true" max="7" min="7" outlineLevel="0" width="18.0931269979583"/>
+    <col customWidth="true" max="8" min="8" outlineLevel="0" width="17.4279385053863"/>
+    <col customWidth="true" max="9" min="9" outlineLevel="0" width="19.1574285860735"/>
+    <col customWidth="true" max="10" min="10" outlineLevel="0" width="14.7671845350983"/>
+    <col customWidth="true" max="11" min="11" outlineLevel="0" width="12.5055436603536"/>
+    <col customWidth="true" max="12" min="12" outlineLevel="0" width="10.643015881152"/>
+    <col customWidth="true" max="13" min="13" outlineLevel="0" width="13.1707321529256"/>
+    <col customWidth="true" max="14" min="14" outlineLevel="0" width="16.2305992187567"/>
+    <col customWidth="true" max="15" min="15" outlineLevel="0" width="21.1529940637895"/>
+    <col customWidth="true" max="16" min="16" outlineLevel="0" width="19.0243908875591"/>
   </cols>
   <sheetData>
-    <row ht="15.6999998092651" outlineLevel="0" r="1">
+    <row outlineLevel="0" r="1">
       <c r="A1" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
-    </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="0" t="n"/>
+      <c r="C1" s="0" t="n"/>
+      <c r="D1" s="0" t="n"/>
+      <c r="E1" s="0" t="n"/>
+      <c r="F1" s="0" t="n"/>
+      <c r="G1" s="0" t="n"/>
+      <c r="H1" s="0" t="n"/>
+      <c r="I1" s="0" t="n"/>
+      <c r="J1" s="0" t="n"/>
+      <c r="K1" s="0" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="3">
-      <c r="A3" s="2" t="n">
+      <c r="K2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="0" t="n"/>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="D3" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C3*D3</f>
         <v>2387</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="4" t="n">
+      <c r="F3" s="5" t="n">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G3&lt;=F3, 0, G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="n">
+      <c r="I3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E3+J3</f>
         <v>2387</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="4">
-      <c r="A4" s="2" t="n">
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E4" s="1" t="n">
+      <c r="D4" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C4*D4</f>
         <v>2369.95</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G4" s="4" t="n">
+      <c r="F4" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F3</f>
+        <v>44813</v>
+      </c>
+      <c r="G4" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G4&lt;=F4, 0, G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E4+J4</f>
         <v>2369.95</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="5">
-      <c r="A5" s="2" t="n">
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E5" s="1" t="n">
+      <c r="D5" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C5*D5</f>
         <v>2352.9</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="4" t="n">
+      <c r="F5" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F4</f>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G5&lt;=F5, 0, G5-F5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H5*I5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E5+J5</f>
         <v>2352.9</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="6">
-      <c r="A6" s="2" t="n">
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C5-0.5</f>
         <v>68.5</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E6" s="1" t="n">
+      <c r="D6" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C6*D6</f>
         <v>2335.85</v>
       </c>
-      <c r="F6" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="4" t="n">
+      <c r="F6" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F5</f>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G5+1</f>
         <v>44808</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G6&lt;=F6, 0, G6-F6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I5</f>
         <v>10</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H6*I6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E6+J6</f>
         <v>2335.85</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="7">
-      <c r="A7" s="2" t="n">
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C6-0.5</f>
         <v>68</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E7" s="1" t="n">
+      <c r="D7" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C7*D7</f>
         <v>2318.8</v>
       </c>
-      <c r="F7" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="4" t="n">
+      <c r="F7" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F6</f>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G6+1</f>
         <v>44809</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G7&lt;=F7, 0, G7-F7)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I6</f>
         <v>10</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H7*I7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E7+J7</f>
         <v>2318.8</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="8">
-      <c r="A8" s="2" t="n">
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C7-0.5</f>
         <v>67.5</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E8" s="1" t="n">
+      <c r="D8" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C8*D8</f>
         <v>2301.75</v>
       </c>
-      <c r="F8" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="4" t="n">
+      <c r="F8" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F7</f>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G7+1</f>
         <v>44810</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G8&lt;=F8, 0, G8-F8)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I7</f>
         <v>10</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="J8" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H8*I8</f>
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E8+J8</f>
         <v>2301.75</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="9">
-      <c r="A9" s="2" t="n">
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A8+1</f>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C8-0.5</f>
         <v>67</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E9" s="1" t="n">
+      <c r="D9" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C9*D9</f>
         <v>2284.7</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="4" t="n">
+      <c r="F9" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F8</f>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G8+1</f>
         <v>44811</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G9&lt;=F9, 0, G9-F9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I8</f>
         <v>10</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="J9" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H9*I9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E9+J9</f>
         <v>2284.7</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="10">
-      <c r="A10" s="2" t="n">
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A9+1</f>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C9-0.5</f>
         <v>66.5</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E10" s="1" t="n">
+      <c r="D10" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E10" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C10*D10</f>
         <v>2267.65</v>
       </c>
-      <c r="F10" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="4" t="n">
+      <c r="F10" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F9</f>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G9+1</f>
         <v>44812</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G10&lt;=F10, 0, G10-F10)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I9</f>
         <v>10</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="J10" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H10*I10</f>
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E10+J10</f>
         <v>2267.65</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="11">
-      <c r="A11" s="2" t="n">
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A10+1</f>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C10-0.5</f>
         <v>66</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E11" s="1" t="n">
+      <c r="D11" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E11" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C11*D11</f>
         <v>2250.6</v>
       </c>
-      <c r="F11" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="4" t="n">
+      <c r="F11" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F10</f>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G10+1</f>
         <v>44813</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G11&lt;=F11, 0, G11-F11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I10</f>
         <v>10</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="J11" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H11*I11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E11+J11</f>
         <v>2250.6</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="12">
-      <c r="A12" s="2" t="n">
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C11-0.5</f>
         <v>65.5</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E12" s="1" t="n">
+      <c r="D12" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C12*D12</f>
         <v>2233.55</v>
       </c>
-      <c r="F12" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="4" t="n">
+      <c r="F12" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F11</f>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G11+1</f>
         <v>44814</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G12&lt;=F12, 0, G12-F12)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I11</f>
         <v>10</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="J12" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H12*I12</f>
         <v>10</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E12+J12</f>
         <v>2243.55</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="13">
-      <c r="A13" s="2" t="n">
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C12-0.5</f>
         <v>65</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E13" s="1" t="n">
+      <c r="D13" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C13*D13</f>
         <v>2216.5</v>
       </c>
-      <c r="F13" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="4" t="n">
+      <c r="F13" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F12</f>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G12+1</f>
         <v>44815</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G13&lt;=F13, 0, G13-F13)</f>
         <v>2</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I12</f>
         <v>10</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="J13" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H13*I13</f>
         <v>20</v>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="K13" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E13+J13</f>
         <v>2236.5</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="14">
-      <c r="A14" s="2" t="n">
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C13-0.5</f>
         <v>64.5</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E14" s="1" t="n">
+      <c r="D14" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C14*D14</f>
         <v>2199.45</v>
       </c>
-      <c r="F14" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="4" t="n">
+      <c r="F14" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F13</f>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G13+1</f>
         <v>44816</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G14&lt;=F14, 0, G14-F14)</f>
         <v>3</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I13</f>
         <v>10</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="J14" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H14*I14</f>
         <v>30</v>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="K14" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E14+J14</f>
         <v>2229.45</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="15">
-      <c r="A15" s="2" t="n">
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A14+1</f>
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C14-0.5</f>
         <v>64</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E15" s="1" t="n">
+      <c r="D15" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C15*D15</f>
         <v>2182.4</v>
       </c>
-      <c r="F15" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="4" t="n">
+      <c r="F15" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F14</f>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G14+1</f>
         <v>44817</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G15&lt;=F15, 0, G15-F15)</f>
         <v>4</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I14</f>
         <v>10</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="J15" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H15*I15</f>
         <v>40</v>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="K15" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E15+J15</f>
         <v>2222.4</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="16">
-      <c r="A16" s="2" t="n">
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A15+1</f>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C15-0.5</f>
         <v>63.5</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E16" s="1" t="n">
+      <c r="D16" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C16*D16</f>
         <v>2165.35</v>
       </c>
-      <c r="F16" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="4" t="n">
+      <c r="F16" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F15</f>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G15+1</f>
         <v>44818</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G16&lt;=F16, 0, G16-F16)</f>
         <v>5</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I15</f>
         <v>10</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="J16" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H16*I16</f>
         <v>50</v>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="K16" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E16+J16</f>
         <v>2215.35</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="17">
-      <c r="A17" s="2" t="n">
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A16+1</f>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C16-0.5</f>
         <v>63</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E17" s="1" t="n">
+      <c r="D17" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C17*D17</f>
         <v>2148.3</v>
       </c>
-      <c r="F17" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="4" t="n">
+      <c r="F17" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F16</f>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G16+1</f>
         <v>44819</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G17&lt;=F17, 0, G17-F17)</f>
         <v>6</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I17" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I16</f>
         <v>10</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="J17" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H17*I17</f>
         <v>60</v>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="K17" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E17+J17</f>
         <v>2208.3</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="18">
-      <c r="A18" s="2" t="n">
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A17+1</f>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C17-0.5</f>
         <v>62.5</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E18" s="1" t="n">
+      <c r="D18" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C18*D18</f>
         <v>2131.25</v>
       </c>
-      <c r="F18" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="4" t="n">
+      <c r="F18" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F17</f>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G17+1</f>
         <v>44820</v>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G18&lt;=F18, 0, G18-F18)</f>
         <v>7</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I18" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I17</f>
         <v>10</v>
       </c>
-      <c r="J18" s="1" t="n">
+      <c r="J18" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H18*I18</f>
         <v>70</v>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="K18" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E18+J18</f>
         <v>2201.25</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="19">
-      <c r="A19" s="2" t="n">
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A18+1</f>
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C18-0.5</f>
         <v>62</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E19" s="1" t="n">
+      <c r="D19" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C19*D19</f>
         <v>2114.2</v>
       </c>
-      <c r="F19" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="4" t="n">
+      <c r="F19" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F18</f>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G18+1</f>
         <v>44821</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G19&lt;=F19, 0, G19-F19)</f>
         <v>8</v>
       </c>
-      <c r="I19" s="1" t="n">
+      <c r="I19" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I18</f>
         <v>10</v>
       </c>
-      <c r="J19" s="1" t="n">
+      <c r="J19" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H19*I19</f>
         <v>80</v>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="K19" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E19+J19</f>
         <v>2194.2</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="20">
-      <c r="A20" s="2" t="n">
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A19+1</f>
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C19-0.5</f>
         <v>61.5</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E20" s="1" t="n">
+      <c r="D20" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E20" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C20*D20</f>
         <v>2097.15</v>
       </c>
-      <c r="F20" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="4" t="n">
+      <c r="F20" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F19</f>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G19+1</f>
         <v>44822</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G20&lt;=F20, 0, G20-F20)</f>
         <v>9</v>
       </c>
-      <c r="I20" s="1" t="n">
+      <c r="I20" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I19</f>
         <v>10</v>
       </c>
-      <c r="J20" s="1" t="n">
+      <c r="J20" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H20*I20</f>
         <v>90</v>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="K20" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E20+J20</f>
         <v>2187.15</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="21">
-      <c r="A21" s="2" t="n">
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A20+1</f>
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C20-0.5</f>
         <v>61</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E21" s="1" t="n">
+      <c r="D21" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E21" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C21*D21</f>
         <v>2080.1</v>
       </c>
-      <c r="F21" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="4" t="n">
+      <c r="F21" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F20</f>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G20+1</f>
         <v>44823</v>
       </c>
-      <c r="H21" s="1" t="n">
+      <c r="H21" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G21&lt;=F21, 0, G21-F21)</f>
         <v>10</v>
       </c>
-      <c r="I21" s="1" t="n">
+      <c r="I21" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I20</f>
         <v>10</v>
       </c>
-      <c r="J21" s="1" t="n">
+      <c r="J21" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H21*I21</f>
         <v>100</v>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="K21" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E21+J21</f>
         <v>2180.1</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="22">
-      <c r="A22" s="2" t="n">
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A21+1</f>
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C21-0.5</f>
         <v>60.5</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E22" s="1" t="n">
+      <c r="D22" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E22" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C22*D22</f>
         <v>2063.05</v>
       </c>
-      <c r="F22" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="4" t="n">
+      <c r="F22" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F21</f>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G21+1</f>
         <v>44824</v>
       </c>
-      <c r="H22" s="1" t="n">
+      <c r="H22" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G22&lt;=F22, 0, G22-F22)</f>
         <v>11</v>
       </c>
-      <c r="I22" s="1" t="n">
+      <c r="I22" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I21</f>
         <v>10</v>
       </c>
-      <c r="J22" s="1" t="n">
+      <c r="J22" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H22*I22</f>
         <v>110</v>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="K22" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E22+J22</f>
         <v>2173.05</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="23">
-      <c r="A23" s="2" t="n">
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A22+1</f>
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C22-0.5</f>
         <v>60</v>
       </c>
-      <c r="D23" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E23" s="1" t="n">
+      <c r="D23" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E23" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C23*D23</f>
         <v>2046</v>
       </c>
-      <c r="F23" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="4" t="n">
+      <c r="F23" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F22</f>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G22+1</f>
         <v>44825</v>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="H23" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G23&lt;=F23, 0, G23-F23)</f>
         <v>12</v>
       </c>
-      <c r="I23" s="1" t="n">
+      <c r="I23" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I22</f>
         <v>10</v>
       </c>
-      <c r="J23" s="1" t="n">
+      <c r="J23" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H23*I23</f>
         <v>120</v>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="K23" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E23+J23</f>
         <v>2166</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="24">
-      <c r="A24" s="2" t="n">
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A23+1</f>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C23-0.5</f>
         <v>59.5</v>
       </c>
-      <c r="D24" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E24" s="1" t="n">
+      <c r="D24" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E24" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C24*D24</f>
         <v>2028.95</v>
       </c>
-      <c r="F24" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="4" t="n">
+      <c r="F24" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F23</f>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G23+1</f>
         <v>44826</v>
       </c>
-      <c r="H24" s="1" t="n">
+      <c r="H24" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G24&lt;=F24, 0, G24-F24)</f>
         <v>13</v>
       </c>
-      <c r="I24" s="1" t="n">
+      <c r="I24" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I23</f>
         <v>10</v>
       </c>
-      <c r="J24" s="1" t="n">
+      <c r="J24" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H24*I24</f>
         <v>130</v>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="K24" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E24+J24</f>
         <v>2158.95</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="25">
-      <c r="A25" s="2" t="n">
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A24+1</f>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C24-0.5</f>
         <v>59</v>
       </c>
-      <c r="D25" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E25" s="1" t="n">
+      <c r="D25" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E25" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C25*D25</f>
         <v>2011.9</v>
       </c>
-      <c r="F25" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="4" t="n">
+      <c r="F25" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F24</f>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G24+1</f>
         <v>44827</v>
       </c>
-      <c r="H25" s="1" t="n">
+      <c r="H25" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G25&lt;=F25, 0, G25-F25)</f>
         <v>14</v>
       </c>
-      <c r="I25" s="1" t="n">
+      <c r="I25" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I24</f>
         <v>10</v>
       </c>
-      <c r="J25" s="1" t="n">
+      <c r="J25" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H25*I25</f>
         <v>140</v>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="K25" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E25+J25</f>
         <v>2151.9</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="26">
-      <c r="A26" s="2" t="n">
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C25-0.5</f>
         <v>58.5</v>
       </c>
-      <c r="D26" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E26" s="1" t="n">
+      <c r="D26" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E26" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C26*D26</f>
         <v>1994.85</v>
       </c>
-      <c r="F26" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="4" t="n">
+      <c r="F26" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F25</f>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G25+1</f>
         <v>44828</v>
       </c>
-      <c r="H26" s="1" t="n">
+      <c r="H26" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G26&lt;=F26, 0, G26-F26)</f>
         <v>15</v>
       </c>
-      <c r="I26" s="1" t="n">
+      <c r="I26" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I25</f>
         <v>10</v>
       </c>
-      <c r="J26" s="1" t="n">
+      <c r="J26" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H26*I26</f>
         <v>150</v>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="K26" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E26+J26</f>
         <v>2144.85</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="27">
-      <c r="A27" s="2" t="n">
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C26-0.5</f>
         <v>58</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E27" s="1" t="n">
+      <c r="D27" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E27" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C27*D27</f>
         <v>1977.8</v>
       </c>
-      <c r="F27" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="4" t="n">
+      <c r="F27" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F26</f>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G26+1</f>
         <v>44829</v>
       </c>
-      <c r="H27" s="1" t="n">
+      <c r="H27" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G27&lt;=F27, 0, G27-F27)</f>
         <v>16</v>
       </c>
-      <c r="I27" s="1" t="n">
+      <c r="I27" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I26</f>
         <v>10</v>
       </c>
-      <c r="J27" s="1" t="n">
+      <c r="J27" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H27*I27</f>
         <v>160</v>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="K27" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E27+J27</f>
         <v>2137.8</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="28">
-      <c r="A28" s="2" t="n">
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A27+1</f>
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C27-0.5</f>
         <v>57.5</v>
       </c>
-      <c r="D28" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E28" s="1" t="n">
+      <c r="D28" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E28" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C28*D28</f>
         <v>1960.75</v>
       </c>
-      <c r="F28" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="4" t="n">
+      <c r="F28" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F27</f>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G27+1</f>
         <v>44830</v>
       </c>
-      <c r="H28" s="1" t="n">
+      <c r="H28" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G28&lt;=F28, 0, G28-F28)</f>
         <v>17</v>
       </c>
-      <c r="I28" s="1" t="n">
+      <c r="I28" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I27</f>
         <v>10</v>
       </c>
-      <c r="J28" s="1" t="n">
+      <c r="J28" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H28*I28</f>
         <v>170</v>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="K28" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E28+J28</f>
         <v>2130.75</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="29">
-      <c r="A29" s="2" t="n">
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A28+1</f>
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C28-0.5</f>
         <v>57</v>
       </c>
-      <c r="D29" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E29" s="1" t="n">
+      <c r="D29" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E29" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C29*D29</f>
         <v>1943.7</v>
       </c>
-      <c r="F29" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="4" t="n">
+      <c r="F29" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F28</f>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G28+1</f>
         <v>44831</v>
       </c>
-      <c r="H29" s="1" t="n">
+      <c r="H29" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G29&lt;=F29, 0, G29-F29)</f>
         <v>18</v>
       </c>
-      <c r="I29" s="1" t="n">
+      <c r="I29" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I28</f>
         <v>10</v>
       </c>
-      <c r="J29" s="1" t="n">
+      <c r="J29" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H29*I29</f>
         <v>180</v>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="K29" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E29+J29</f>
         <v>2123.7</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="30">
-      <c r="A30" s="2" t="n">
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A29+1</f>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C29-0.5</f>
         <v>56.5</v>
       </c>
-      <c r="D30" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E30" s="1" t="n">
+      <c r="D30" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E30" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C30*D30</f>
         <v>1926.65</v>
       </c>
-      <c r="F30" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="4" t="n">
+      <c r="F30" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F29</f>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G29+1</f>
         <v>44832</v>
       </c>
-      <c r="H30" s="1" t="n">
+      <c r="H30" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G30&lt;=F30, 0, G30-F30)</f>
         <v>19</v>
       </c>
-      <c r="I30" s="1" t="n">
+      <c r="I30" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I29</f>
         <v>10</v>
       </c>
-      <c r="J30" s="1" t="n">
+      <c r="J30" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H30*I30</f>
         <v>190</v>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="K30" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E30+J30</f>
         <v>2116.65</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="31">
-      <c r="A31" s="2" t="n">
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A30+1</f>
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C30-0.5</f>
         <v>56</v>
       </c>
-      <c r="D31" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E31" s="1" t="n">
+      <c r="D31" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E31" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C31*D31</f>
         <v>1909.6</v>
       </c>
-      <c r="F31" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="4" t="n">
+      <c r="F31" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F30</f>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G30+1</f>
         <v>44833</v>
       </c>
-      <c r="H31" s="1" t="n">
+      <c r="H31" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G31&lt;=F31, 0, G31-F31)</f>
         <v>20</v>
       </c>
-      <c r="I31" s="1" t="n">
+      <c r="I31" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I30</f>
         <v>10</v>
       </c>
-      <c r="J31" s="1" t="n">
+      <c r="J31" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H31*I31</f>
         <v>200</v>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="K31" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E31+J31</f>
         <v>2109.6</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="32">
-      <c r="A32" s="2" t="n">
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A31+1</f>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C31-0.5</f>
         <v>55.5</v>
       </c>
-      <c r="D32" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E32" s="1" t="n">
+      <c r="D32" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E32" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C32*D32</f>
         <v>1892.55</v>
       </c>
-      <c r="F32" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="4" t="n">
+      <c r="F32" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F31</f>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G31+1</f>
         <v>44834</v>
       </c>
-      <c r="H32" s="1" t="n">
+      <c r="H32" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G32&lt;=F32, 0, G32-F32)</f>
         <v>21</v>
       </c>
-      <c r="I32" s="1" t="n">
+      <c r="I32" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I31</f>
         <v>10</v>
       </c>
-      <c r="J32" s="1" t="n">
+      <c r="J32" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H32*I32</f>
         <v>210</v>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="K32" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E32+J32</f>
         <v>2102.55</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="33">
-      <c r="A33" s="2" t="n">
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A32+1</f>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C32-0.5</f>
         <v>55</v>
       </c>
-      <c r="D33" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E33" s="1" t="n">
+      <c r="D33" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E33" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C33*D33</f>
         <v>1875.5</v>
       </c>
-      <c r="F33" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="4" t="n">
+      <c r="F33" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F32</f>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G32+1</f>
         <v>44835</v>
       </c>
-      <c r="H33" s="1" t="n">
+      <c r="H33" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G33&lt;=F33, 0, G33-F33)</f>
         <v>22</v>
       </c>
-      <c r="I33" s="1" t="n">
+      <c r="I33" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I32</f>
         <v>10</v>
       </c>
-      <c r="J33" s="1" t="n">
+      <c r="J33" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H33*I33</f>
         <v>220</v>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="K33" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E33+J33</f>
         <v>2095.5</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="34">
-      <c r="A34" s="2" t="n">
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A33+1</f>
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C33-0.5</f>
         <v>54.5</v>
       </c>
-      <c r="D34" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E34" s="1" t="n">
+      <c r="D34" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="E34" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C34*D34</f>
         <v>1858.45</v>
       </c>
-      <c r="F34" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="4" t="n">
+      <c r="F34" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F33</f>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G33+1</f>
         <v>44836</v>
       </c>
-      <c r="H34" s="1" t="n">
+      <c r="H34" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G34&lt;=F34, 0, G34-F34)</f>
         <v>23</v>
       </c>
-      <c r="I34" s="1" t="n">
+      <c r="I34" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I33</f>
         <v>10</v>
       </c>
-      <c r="J34" s="1" t="n">
+      <c r="J34" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H34*I34</f>
         <v>230</v>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="K34" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E34+J34</f>
         <v>2088.45</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="35">
-      <c r="A35" s="2" t="n">
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A34+1</f>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C34-0.5</f>
         <v>54</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1/2</f>
         <v>17.05</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C35*D35</f>
         <v>920.7</v>
       </c>
-      <c r="F35" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="4" t="n">
+      <c r="F35" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F34</f>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G34+1</f>
         <v>44837</v>
       </c>
-      <c r="H35" s="1" t="n">
+      <c r="H35" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G35&lt;=F35, 0, G35-F35)</f>
         <v>24</v>
       </c>
-      <c r="I35" s="1" t="n">
+      <c r="I35" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I34</f>
         <v>10</v>
       </c>
-      <c r="J35" s="1" t="n">
+      <c r="J35" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H35*I35</f>
         <v>240</v>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="K35" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E35+J35</f>
         <v>1160.7</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="36">
-      <c r="A36" s="2" t="n">
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A35+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C35-0.5</f>
         <v>53.5</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1/2</f>
         <v>17.05</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C36*D36</f>
         <v>912.175</v>
       </c>
-      <c r="F36" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="4" t="n">
+      <c r="F36" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F35</f>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G35+1</f>
         <v>44838</v>
       </c>
-      <c r="H36" s="1" t="n">
+      <c r="H36" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G36&lt;=F36, 0, G36-F36)</f>
         <v>25</v>
       </c>
-      <c r="I36" s="1" t="n">
+      <c r="I36" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I35</f>
         <v>10</v>
       </c>
-      <c r="J36" s="1" t="n">
+      <c r="J36" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H36*I36</f>
         <v>250</v>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="K36" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E36+J36</f>
         <v>1162.175</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="37">
-      <c r="A37" s="2" t="n">
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C36-0.5</f>
         <v>53</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1/2</f>
         <v>17.05</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C37*D37</f>
         <v>903.65</v>
       </c>
-      <c r="F37" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="4" t="n">
+      <c r="F37" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F36</f>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G36+1</f>
         <v>44839</v>
       </c>
-      <c r="H37" s="1" t="n">
+      <c r="H37" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G37&lt;=F37, 0, G37-F37)</f>
         <v>26</v>
       </c>
-      <c r="I37" s="1" t="n">
+      <c r="I37" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I36</f>
         <v>10</v>
       </c>
-      <c r="J37" s="1" t="n">
+      <c r="J37" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H37*I37</f>
         <v>260</v>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="K37" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E37+J37</f>
         <v>1163.65</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="38">
-      <c r="A38" s="2" t="n">
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C37-0.5</f>
         <v>52.5</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1/2</f>
         <v>17.05</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C38*D38</f>
         <v>895.125</v>
       </c>
-      <c r="F38" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="4" t="n">
+      <c r="F38" s="5" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F37</f>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G37+1</f>
         <v>44840</v>
       </c>
-      <c r="H38" s="1" t="n">
+      <c r="H38" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G38&lt;=F38, 0, G38-F38)</f>
         <v>27</v>
       </c>
-      <c r="I38" s="1" t="n">
+      <c r="I38" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I37</f>
         <v>10</v>
       </c>
-      <c r="J38" s="1" t="n">
+      <c r="J38" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H38*I38</f>
         <v>270</v>
       </c>
-      <c r="K38" s="5" t="n">
+      <c r="K38" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E38+J38</f>
         <v>1165.125</v>
       </c>
     </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="39">
-      <c r="A39" s="2" t="n"/>
-      <c r="B39" s="1" t="n"/>
-      <c r="C39" s="1" t="n"/>
-      <c r="D39" s="1" t="n"/>
-      <c r="E39" s="1" t="n"/>
-      <c r="F39" s="1" t="n"/>
-      <c r="G39" s="4" t="n"/>
-      <c r="H39" s="1" t="n"/>
-      <c r="I39" s="1" t="n"/>
-      <c r="J39" s="1" t="n"/>
-      <c r="K39" s="1" t="n"/>
-    </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="40">
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="0" t="n"/>
+      <c r="C39" s="0" t="n"/>
+      <c r="D39" s="0" t="n"/>
+      <c r="E39" s="0" t="n"/>
+      <c r="F39" s="0" t="n"/>
+      <c r="G39" s="0" t="n"/>
+      <c r="H39" s="0" t="n"/>
+      <c r="I39" s="0" t="n"/>
+      <c r="J39" s="0" t="n"/>
+      <c r="K39" s="0" t="n"/>
+    </row>
+    <row outlineLevel="0" r="40">
       <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C40" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">FLOOR(SUM(K3:K38), 1)</f>
         <v>75338</v>
       </c>
-      <c r="D40" s="1" t="n"/>
-      <c r="E40" s="1" t="n"/>
-      <c r="F40" s="1" t="n"/>
-      <c r="G40" s="1" t="n"/>
-      <c r="H40" s="1" t="n"/>
-      <c r="I40" s="1" t="n"/>
-      <c r="J40" s="1" t="n"/>
-      <c r="K40" s="1" t="n"/>
-    </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="41">
+      <c r="D40" s="0" t="n"/>
+      <c r="E40" s="0" t="n"/>
+      <c r="F40" s="0" t="n"/>
+      <c r="G40" s="0" t="n"/>
+      <c r="H40" s="0" t="n"/>
+      <c r="I40" s="0" t="n"/>
+      <c r="J40" s="0" t="n"/>
+      <c r="K40" s="0" t="n"/>
+    </row>
+    <row outlineLevel="0" r="41">
       <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C41" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="D41" s="1" t="n"/>
-      <c r="E41" s="1" t="n"/>
-      <c r="F41" s="1" t="n"/>
-      <c r="G41" s="1" t="n"/>
-      <c r="H41" s="1" t="n"/>
-      <c r="I41" s="1" t="n"/>
-      <c r="J41" s="1" t="n"/>
-      <c r="K41" s="1" t="n"/>
-    </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="42">
+      <c r="D41" s="0" t="n"/>
+      <c r="E41" s="0" t="n"/>
+      <c r="F41" s="0" t="n"/>
+      <c r="G41" s="0" t="n"/>
+      <c r="H41" s="0" t="n"/>
+      <c r="I41" s="0" t="n"/>
+      <c r="J41" s="0" t="n"/>
+      <c r="K41" s="0" t="n"/>
+    </row>
+    <row outlineLevel="0" r="42">
       <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="D42" s="1" t="n"/>
-      <c r="E42" s="1" t="n"/>
-      <c r="F42" s="1" t="n"/>
-      <c r="G42" s="1" t="n"/>
-      <c r="H42" s="1" t="n"/>
-      <c r="I42" s="1" t="n"/>
-      <c r="J42" s="1" t="n"/>
-      <c r="K42" s="1" t="n"/>
-    </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="43">
+      <c r="D42" s="0" t="n"/>
+      <c r="E42" s="0" t="n"/>
+      <c r="F42" s="0" t="n"/>
+      <c r="G42" s="0" t="n"/>
+      <c r="H42" s="0" t="n"/>
+      <c r="I42" s="0" t="n"/>
+      <c r="J42" s="0" t="n"/>
+      <c r="K42" s="0" t="n"/>
+    </row>
+    <row outlineLevel="0" r="43">
       <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="C43" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3:K38)</f>
         <v>2387</v>
       </c>
-      <c r="D43" s="1" t="n"/>
-      <c r="E43" s="1" t="n"/>
-      <c r="F43" s="1" t="n"/>
-      <c r="G43" s="1" t="n"/>
-      <c r="H43" s="1" t="n"/>
-      <c r="I43" s="1" t="n"/>
-      <c r="J43" s="1" t="n"/>
-      <c r="K43" s="1" t="n"/>
-    </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n"/>
-      <c r="D44" s="1" t="n"/>
-      <c r="E44" s="1" t="n"/>
-      <c r="F44" s="1" t="n"/>
-      <c r="G44" s="1" t="n"/>
-      <c r="H44" s="1" t="n"/>
-      <c r="I44" s="1" t="n"/>
-      <c r="J44" s="1" t="n"/>
-      <c r="K44" s="1" t="n"/>
-    </row>
-    <row ht="15.6999998092651" outlineLevel="0" r="45">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="n"/>
-      <c r="D45" s="1" t="n"/>
-      <c r="E45" s="1" t="n"/>
-      <c r="F45" s="1" t="n"/>
-      <c r="G45" s="1" t="n"/>
-      <c r="H45" s="1" t="n"/>
-      <c r="I45" s="1" t="n"/>
-      <c r="J45" s="1" t="n"/>
-      <c r="K45" s="1" t="n"/>
+      <c r="D43" s="0" t="n"/>
+      <c r="E43" s="0" t="n"/>
+      <c r="F43" s="0" t="n"/>
+      <c r="G43" s="0" t="n"/>
+      <c r="H43" s="0" t="n"/>
+      <c r="I43" s="0" t="n"/>
+      <c r="J43" s="0" t="n"/>
+      <c r="K43" s="0" t="n"/>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="B47" s="0" t="n"/>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="false" sqref="H3:H38">
-    <cfRule aboveAverage="true" bottom="false" dxfId="0" equalAverage="false" percent="false" priority="1" stopIfTrue="false" type="expression">
-      <formula>"&gt;09.09.2022"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
   <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297mm" paperSize="9" paperWidth="210mm" scale="100"/>
 </worksheet>

--- a/LR3/table_1_31.xlsx
+++ b/LR3/table_1_31.xlsx
@@ -45,64 +45,61 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Аминова</t>
-  </si>
-  <si>
-    <t>Байрамшин</t>
-  </si>
-  <si>
-    <t>Башкирова</t>
-  </si>
-  <si>
-    <t>Гагаркин</t>
-  </si>
-  <si>
-    <t>Гайнуллина</t>
-  </si>
-  <si>
-    <t>Галиаскаров</t>
-  </si>
-  <si>
-    <t>Гареева</t>
-  </si>
-  <si>
-    <t>Дуболазов</t>
-  </si>
-  <si>
-    <t>Лучин</t>
-  </si>
-  <si>
-    <t>Матижева</t>
-  </si>
-  <si>
-    <t>Мифтахов</t>
-  </si>
-  <si>
-    <t>Нугъманов</t>
-  </si>
-  <si>
-    <t>Проскура</t>
-  </si>
-  <si>
-    <t>Рафиков</t>
-  </si>
-  <si>
-    <t>Рахматулов</t>
-  </si>
-  <si>
-    <t>Смирнова</t>
-  </si>
-  <si>
-    <t>Соловьев</t>
-  </si>
-  <si>
-    <t>Спирина</t>
-  </si>
-  <si>
-    <t>Хайруллин</t>
-  </si>
-  <si>
-    <t>Харисов</t>
+    <t>Авад</t>
+  </si>
+  <si>
+    <t>Ахтарьянов</t>
+  </si>
+  <si>
+    <t>Габидуллин</t>
+  </si>
+  <si>
+    <t>Гуссамов</t>
+  </si>
+  <si>
+    <t>Ефарова</t>
+  </si>
+  <si>
+    <t>Измайлов</t>
+  </si>
+  <si>
+    <t>Мирзагитова</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
+  </si>
+  <si>
+    <t>Нуруллина</t>
+  </si>
+  <si>
+    <t>Пермяков</t>
+  </si>
+  <si>
+    <t>Ратушин</t>
+  </si>
+  <si>
+    <t>Сидорин</t>
+  </si>
+  <si>
+    <t>Сулейманов</t>
+  </si>
+  <si>
+    <t>Тухбатуллин</t>
+  </si>
+  <si>
+    <t>Хакимов</t>
+  </si>
+  <si>
+    <t>Шаймарданов</t>
+  </si>
+  <si>
+    <t>Шакиров</t>
+  </si>
+  <si>
+    <t>Шамсутдинова</t>
+  </si>
+  <si>
+    <t>Юмагужин</t>
   </si>
   <si>
     <t>Куропаткин 1</t>
@@ -179,14 +176,14 @@
       <sz val="11"/>
     </font>
     <font>
+      <color theme="1" tint="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Times New Roman"/>
       <color theme="1" tint="0"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="282C34" tint="0"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -216,19 +213,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false"/>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="14" quotePrefix="false"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="14" quotePrefix="false"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -239,9 +232,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -255,7 +248,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -267,7 +260,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -279,7 +272,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
@@ -291,7 +284,7 @@
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,1787 +436,1716 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="9.57871429303676" defaultRowHeight="15.75" zeroHeight="false"/>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="8.85546864361033" defaultRowHeight="15.75" zeroHeight="false"/>
   <cols>
-    <col customWidth="true" max="1" min="1" outlineLevel="0" style="1" width="15.9645238217279"/>
-    <col customWidth="true" max="2" min="2" outlineLevel="0" width="35.9201785988879"/>
-    <col customWidth="true" max="3" min="3" outlineLevel="0" width="25.8093135117935"/>
-    <col customWidth="true" max="4" min="4" outlineLevel="0" width="16.6297123142999"/>
-    <col customWidth="true" max="5" min="5" outlineLevel="0" width="14.6341468365839"/>
-    <col customWidth="true" max="6" min="6" outlineLevel="0" width="18.2261646964727"/>
-    <col customWidth="true" max="7" min="7" outlineLevel="0" width="18.0931269979583"/>
-    <col customWidth="true" max="8" min="8" outlineLevel="0" width="17.4279385053863"/>
-    <col customWidth="true" max="9" min="9" outlineLevel="0" width="19.1574285860735"/>
-    <col customWidth="true" max="10" min="10" outlineLevel="0" width="14.7671845350983"/>
-    <col customWidth="true" max="11" min="11" outlineLevel="0" width="12.5055436603536"/>
-    <col customWidth="true" max="12" min="12" outlineLevel="0" width="10.643015881152"/>
-    <col customWidth="true" max="13" min="13" outlineLevel="0" width="13.1707321529256"/>
-    <col customWidth="true" max="14" min="14" outlineLevel="0" width="16.2305992187567"/>
-    <col customWidth="true" max="15" min="15" outlineLevel="0" width="21.1529940637895"/>
-    <col customWidth="true" max="16" min="16" outlineLevel="0" width="19.0243908875591"/>
+    <col customWidth="true" max="1" min="1" outlineLevel="0" style="1" width="24.8554679669456"/>
+    <col customWidth="true" max="2" min="2" outlineLevel="0" style="1" width="36.2851553123171"/>
+    <col customWidth="true" max="3" min="3" outlineLevel="0" style="1" width="21.7109379638854"/>
+    <col customWidth="true" max="4" min="4" outlineLevel="0" style="1" width="21.5703121471299"/>
+    <col customWidth="true" max="5" min="5" outlineLevel="0" style="1" width="14.2851556506495"/>
+    <col customWidth="true" max="6" min="6" outlineLevel="0" style="1" width="23.5703138387917"/>
+    <col customWidth="true" max="7" min="7" outlineLevel="0" style="1" width="19.2851558198157"/>
+    <col customWidth="true" max="8" min="8" outlineLevel="0" style="1" width="25.7109372872207"/>
+    <col customWidth="true" max="9" min="9" outlineLevel="0" style="1" width="22.7109388097163"/>
+    <col customWidth="true" max="10" min="10" outlineLevel="0" style="1" width="17.4257812982388"/>
+    <col customWidth="true" max="11" min="11" outlineLevel="0" style="1" width="18.2851563273142"/>
+    <col customWidth="true" max="16384" min="12" outlineLevel="0" style="1" width="8.85546864361033"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
       <c r="A1" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B1" s="0" t="n"/>
-      <c r="C1" s="0" t="n"/>
-      <c r="D1" s="0" t="n"/>
-      <c r="E1" s="0" t="n"/>
-      <c r="F1" s="0" t="n"/>
-      <c r="G1" s="0" t="n"/>
-      <c r="H1" s="0" t="n"/>
-      <c r="I1" s="0" t="n"/>
-      <c r="J1" s="0" t="n"/>
-      <c r="K1" s="0" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="2" t="n"/>
-    </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row customFormat="true" ht="15.75" outlineLevel="0" r="2" s="2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="0" t="n"/>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
         <v>34.1</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C3*D3</f>
         <v>2387</v>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="5" t="n">
+      <c r="F3" s="4" t="n">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="4" t="n">
         <v>44805</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G3&lt;=F3, 0, G3-F3)</f>
+      <c r="H3" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G3&gt;F3, G3-F3, 0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="n">
+      <c r="I3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E3+J3</f>
         <v>2387</v>
       </c>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D4" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3</f>
+        <v>34.1</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C4*D4</f>
         <v>2369.95</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G4&lt;=F4, 0, G4-F4)</f>
+      <c r="H4" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G4&gt;F4, G4-F4, 0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E4+J4</f>
         <v>2369.95</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="D5" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D4</f>
+        <v>34.1</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C5*D5</f>
         <v>2352.9</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G5&lt;=F5, 0, G5-F5)</f>
+      <c r="H5" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G5&gt;F5, G5-F5, 0)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H5*I5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E5+J5</f>
         <v>2352.9</v>
       </c>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C5-0.5</f>
         <v>68.5</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="D6" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D5</f>
+        <v>34.1</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C6*D6</f>
         <v>2335.85</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F5</f>
         <v>44813</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G5+1</f>
         <v>44808</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G6&lt;=F6, 0, G6-F6)</f>
+      <c r="H6" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G6&gt;F6, G6-F6, 0)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I5</f>
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H6*I6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E6+J6</f>
         <v>2335.85</v>
       </c>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C6-0.5</f>
         <v>68</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="D7" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D6</f>
+        <v>34.1</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C7*D7</f>
         <v>2318.8</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F6</f>
         <v>44813</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G6+1</f>
         <v>44809</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G7&lt;=F7, 0, G7-F7)</f>
+      <c r="H7" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G7&gt;F7, G7-F7, 0)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I6</f>
         <v>10</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H7*I7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E7+J7</f>
         <v>2318.8</v>
       </c>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C7-0.5</f>
         <v>67.5</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="D8" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D7</f>
+        <v>34.1</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C8*D8</f>
         <v>2301.75</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F7</f>
         <v>44813</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G7+1</f>
         <v>44810</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G8&lt;=F8, 0, G8-F8)</f>
+      <c r="H8" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G8&gt;F8, G8-F8, 0)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I7</f>
         <v>10</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H8*I8</f>
         <v>0</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E8+J8</f>
         <v>2301.75</v>
       </c>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A8+1</f>
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C8-0.5</f>
         <v>67</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="D9" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D8</f>
+        <v>34.1</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C9*D9</f>
         <v>2284.7</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F8</f>
         <v>44813</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G8+1</f>
         <v>44811</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G9&lt;=F9, 0, G9-F9)</f>
+      <c r="H9" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G9&gt;F9, G9-F9, 0)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I8</f>
         <v>10</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H9*I9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E9+J9</f>
         <v>2284.7</v>
       </c>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A9+1</f>
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C9-0.5</f>
         <v>66.5</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D9</f>
+        <v>34.1</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C10*D10</f>
         <v>2267.65</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F9</f>
         <v>44813</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G9+1</f>
         <v>44812</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G10&lt;=F10, 0, G10-F10)</f>
+      <c r="H10" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G10&gt;F10, G10-F10, 0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I9</f>
         <v>10</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H10*I10</f>
         <v>0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E10+J10</f>
         <v>2267.65</v>
       </c>
     </row>
     <row outlineLevel="0" r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A10+1</f>
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="0" t="n">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C10-0.5</f>
         <v>66</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E11" s="0" t="n">
+      <c r="D11" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D10</f>
+        <v>34.1</v>
+      </c>
+      <c r="E11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C11*D11</f>
         <v>2250.6</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F10</f>
         <v>44813</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G10+1</f>
         <v>44813</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G11&lt;=F11, 0, G11-F11)</f>
+      <c r="H11" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G11&gt;F11, G11-F11, 0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I10</f>
         <v>10</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H11*I11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E11+J11</f>
         <v>2250.6</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C11-0.5</f>
         <v>65.5</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E12" s="0" t="n">
+      <c r="D12" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D11</f>
+        <v>34.1</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C12*D12</f>
         <v>2233.55</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F11</f>
         <v>44813</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G11+1</f>
         <v>44814</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G12&lt;=F12, 0, G12-F12)</f>
+      <c r="H12" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G12&gt;F12, G12-F12, 0)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I11</f>
         <v>10</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H12*I12</f>
         <v>10</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E12+J12</f>
         <v>2243.55</v>
       </c>
     </row>
     <row outlineLevel="0" r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C12-0.5</f>
         <v>65</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="D13" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D12</f>
+        <v>34.1</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C13*D13</f>
         <v>2216.5</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F12</f>
         <v>44813</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G12+1</f>
         <v>44815</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G13&lt;=F13, 0, G13-F13)</f>
+      <c r="H13" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G13&gt;F13, G13-F13, 0)</f>
         <v>2</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I12</f>
         <v>10</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H13*I13</f>
         <v>20</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E13+J13</f>
         <v>2236.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C13-0.5</f>
         <v>64.5</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="D14" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D13</f>
+        <v>34.1</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C14*D14</f>
         <v>2199.45</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F13</f>
         <v>44813</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G13+1</f>
         <v>44816</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G14&lt;=F14, 0, G14-F14)</f>
+      <c r="H14" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G14&gt;F14, G14-F14, 0)</f>
         <v>3</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I13</f>
         <v>10</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H14*I14</f>
         <v>30</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E14+J14</f>
         <v>2229.45</v>
       </c>
     </row>
     <row outlineLevel="0" r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A14+1</f>
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C14-0.5</f>
         <v>64</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="D15" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D14</f>
+        <v>34.1</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C15*D15</f>
         <v>2182.4</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F14</f>
         <v>44813</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G14+1</f>
         <v>44817</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G15&lt;=F15, 0, G15-F15)</f>
+      <c r="H15" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G15&gt;F15, G15-F15, 0)</f>
         <v>4</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I14</f>
         <v>10</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H15*I15</f>
         <v>40</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E15+J15</f>
         <v>2222.4</v>
       </c>
     </row>
     <row outlineLevel="0" r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A15+1</f>
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C15-0.5</f>
         <v>63.5</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E16" s="0" t="n">
+      <c r="D16" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D15</f>
+        <v>34.1</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C16*D16</f>
         <v>2165.35</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F15</f>
         <v>44813</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G15+1</f>
         <v>44818</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G16&lt;=F16, 0, G16-F16)</f>
+      <c r="H16" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G16&gt;F16, G16-F16, 0)</f>
         <v>5</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I15</f>
         <v>10</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H16*I16</f>
         <v>50</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E16+J16</f>
         <v>2215.35</v>
       </c>
     </row>
     <row outlineLevel="0" r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A16+1</f>
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="0" t="n">
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C16-0.5</f>
         <v>63</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E17" s="0" t="n">
+      <c r="D17" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D16</f>
+        <v>34.1</v>
+      </c>
+      <c r="E17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C17*D17</f>
         <v>2148.3</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F16</f>
         <v>44813</v>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G16+1</f>
         <v>44819</v>
       </c>
-      <c r="H17" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G17&lt;=F17, 0, G17-F17)</f>
+      <c r="H17" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G17&gt;F17, G17-F17, 0)</f>
         <v>6</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I16</f>
         <v>10</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H17*I17</f>
         <v>60</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E17+J17</f>
         <v>2208.3</v>
       </c>
     </row>
     <row outlineLevel="0" r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A17+1</f>
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="0" t="n">
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C17-0.5</f>
         <v>62.5</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="D18" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D17</f>
+        <v>34.1</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C18*D18</f>
         <v>2131.25</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F17</f>
         <v>44813</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G17+1</f>
         <v>44820</v>
       </c>
-      <c r="H18" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G18&lt;=F18, 0, G18-F18)</f>
+      <c r="H18" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G18&gt;F18, G18-F18, 0)</f>
         <v>7</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I17</f>
         <v>10</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H18*I18</f>
         <v>70</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E18+J18</f>
         <v>2201.25</v>
       </c>
     </row>
     <row outlineLevel="0" r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A18+1</f>
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="0" t="n">
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C18-0.5</f>
         <v>62</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="D19" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D18</f>
+        <v>34.1</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C19*D19</f>
         <v>2114.2</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F18</f>
         <v>44813</v>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="G19" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G18+1</f>
         <v>44821</v>
       </c>
-      <c r="H19" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G19&lt;=F19, 0, G19-F19)</f>
+      <c r="H19" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G19&gt;F19, G19-F19, 0)</f>
         <v>8</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I18</f>
         <v>10</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H19*I19</f>
         <v>80</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E19+J19</f>
         <v>2194.2</v>
       </c>
     </row>
     <row outlineLevel="0" r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A19+1</f>
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C19-0.5</f>
         <v>61.5</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E20" s="0" t="n">
+      <c r="D20" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D19</f>
+        <v>34.1</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C20*D20</f>
         <v>2097.15</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F19</f>
         <v>44813</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G19+1</f>
         <v>44822</v>
       </c>
-      <c r="H20" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G20&lt;=F20, 0, G20-F20)</f>
+      <c r="H20" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G20&gt;F20, G20-F20, 0)</f>
         <v>9</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I19</f>
         <v>10</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H20*I20</f>
         <v>90</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E20+J20</f>
         <v>2187.15</v>
       </c>
     </row>
     <row outlineLevel="0" r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A20+1</f>
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C20-0.5</f>
         <v>61</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E21" s="0" t="n">
+      <c r="D21" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D20</f>
+        <v>34.1</v>
+      </c>
+      <c r="E21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C21*D21</f>
         <v>2080.1</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F20</f>
         <v>44813</v>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="G21" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G20+1</f>
         <v>44823</v>
       </c>
-      <c r="H21" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G21&lt;=F21, 0, G21-F21)</f>
-        <v>10</v>
-      </c>
-      <c r="I21" s="0" t="n">
+      <c r="H21" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G21&gt;F21, G21-F21, 0)</f>
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I20</f>
         <v>10</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H21*I21</f>
         <v>100</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E21+J21</f>
         <v>2180.1</v>
       </c>
     </row>
     <row outlineLevel="0" r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A21+1</f>
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="0" t="n">
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C21-0.5</f>
         <v>60.5</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="D22" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D21</f>
+        <v>34.1</v>
+      </c>
+      <c r="E22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C22*D22</f>
         <v>2063.05</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F21</f>
         <v>44813</v>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="G22" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G21+1</f>
         <v>44824</v>
       </c>
-      <c r="H22" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G22&lt;=F22, 0, G22-F22)</f>
+      <c r="H22" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G22&gt;F22, G22-F22, 0)</f>
         <v>11</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I21</f>
         <v>10</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H22*I22</f>
         <v>110</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E22+J22</f>
         <v>2173.05</v>
       </c>
     </row>
     <row outlineLevel="0" r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A22+1</f>
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C22-0.5</f>
         <v>60</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E23" s="0" t="n">
+      <c r="D23" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D22</f>
+        <v>34.1</v>
+      </c>
+      <c r="E23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C23*D23</f>
         <v>2046</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F22</f>
         <v>44813</v>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="G23" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G22+1</f>
         <v>44825</v>
       </c>
-      <c r="H23" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G23&lt;=F23, 0, G23-F23)</f>
+      <c r="H23" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G23&gt;F23, G23-F23, 0)</f>
         <v>12</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I22</f>
         <v>10</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H23*I23</f>
         <v>120</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E23+J23</f>
         <v>2166</v>
       </c>
     </row>
     <row outlineLevel="0" r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A23+1</f>
         <v>22</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="0" t="n">
+      <c r="B24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C23-0.5</f>
         <v>59.5</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E24" s="0" t="n">
+      <c r="D24" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D23</f>
+        <v>34.1</v>
+      </c>
+      <c r="E24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C24*D24</f>
         <v>2028.95</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F23</f>
         <v>44813</v>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="G24" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G23+1</f>
         <v>44826</v>
       </c>
-      <c r="H24" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G24&lt;=F24, 0, G24-F24)</f>
+      <c r="H24" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G24&gt;F24, G24-F24, 0)</f>
         <v>13</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I23</f>
         <v>10</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H24*I24</f>
         <v>130</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E24+J24</f>
         <v>2158.95</v>
       </c>
     </row>
     <row outlineLevel="0" r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A24+1</f>
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="B25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C24-0.5</f>
         <v>59</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E25" s="0" t="n">
+      <c r="D25" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D24</f>
+        <v>34.1</v>
+      </c>
+      <c r="E25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C25*D25</f>
         <v>2011.9</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F24</f>
         <v>44813</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="G25" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G24+1</f>
         <v>44827</v>
       </c>
-      <c r="H25" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G25&lt;=F25, 0, G25-F25)</f>
+      <c r="H25" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G25&gt;F25, G25-F25, 0)</f>
         <v>14</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I24</f>
         <v>10</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H25*I25</f>
         <v>140</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E25+J25</f>
         <v>2151.9</v>
       </c>
     </row>
     <row outlineLevel="0" r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="0" t="n">
+      <c r="B26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C25-0.5</f>
         <v>58.5</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E26" s="0" t="n">
+      <c r="D26" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D25</f>
+        <v>34.1</v>
+      </c>
+      <c r="E26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C26*D26</f>
         <v>1994.85</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F25</f>
         <v>44813</v>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="G26" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G25+1</f>
         <v>44828</v>
       </c>
-      <c r="H26" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G26&lt;=F26, 0, G26-F26)</f>
+      <c r="H26" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G26&gt;F26, G26-F26, 0)</f>
         <v>15</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I25</f>
         <v>10</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H26*I26</f>
         <v>150</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E26+J26</f>
         <v>2144.85</v>
       </c>
     </row>
     <row outlineLevel="0" r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="0" t="n">
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C26-0.5</f>
         <v>58</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E27" s="0" t="n">
+      <c r="D27" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D26</f>
+        <v>34.1</v>
+      </c>
+      <c r="E27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C27*D27</f>
         <v>1977.8</v>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F26</f>
         <v>44813</v>
       </c>
-      <c r="G27" s="5" t="n">
+      <c r="G27" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G26+1</f>
         <v>44829</v>
       </c>
-      <c r="H27" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G27&lt;=F27, 0, G27-F27)</f>
+      <c r="H27" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G27&gt;F27, G27-F27, 0)</f>
         <v>16</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I26</f>
         <v>10</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H27*I27</f>
         <v>160</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E27+J27</f>
         <v>2137.8</v>
       </c>
     </row>
     <row outlineLevel="0" r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A27+1</f>
         <v>26</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="B28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C27-0.5</f>
         <v>57.5</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E28" s="0" t="n">
+      <c r="D28" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D27</f>
+        <v>34.1</v>
+      </c>
+      <c r="E28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C28*D28</f>
         <v>1960.75</v>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F27</f>
         <v>44813</v>
       </c>
-      <c r="G28" s="5" t="n">
+      <c r="G28" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G27+1</f>
         <v>44830</v>
       </c>
-      <c r="H28" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G28&lt;=F28, 0, G28-F28)</f>
+      <c r="H28" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G28&gt;F28, G28-F28, 0)</f>
         <v>17</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I27</f>
         <v>10</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H28*I28</f>
         <v>170</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E28+J28</f>
         <v>2130.75</v>
       </c>
     </row>
     <row outlineLevel="0" r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A28+1</f>
         <v>27</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="0" t="n">
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C28-0.5</f>
         <v>57</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E29" s="0" t="n">
+      <c r="D29" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D28</f>
+        <v>34.1</v>
+      </c>
+      <c r="E29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C29*D29</f>
         <v>1943.7</v>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F28</f>
         <v>44813</v>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="G29" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G28+1</f>
         <v>44831</v>
       </c>
-      <c r="H29" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G29&lt;=F29, 0, G29-F29)</f>
+      <c r="H29" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G29&gt;F29, G29-F29, 0)</f>
         <v>18</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I28</f>
         <v>10</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H29*I29</f>
         <v>180</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E29+J29</f>
         <v>2123.7</v>
       </c>
     </row>
     <row outlineLevel="0" r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A29+1</f>
         <v>28</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="0" t="n">
+      <c r="B30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C29-0.5</f>
         <v>56.5</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E30" s="0" t="n">
+      <c r="D30" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D29</f>
+        <v>34.1</v>
+      </c>
+      <c r="E30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C30*D30</f>
         <v>1926.65</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F29</f>
         <v>44813</v>
       </c>
-      <c r="G30" s="5" t="n">
+      <c r="G30" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G29+1</f>
         <v>44832</v>
       </c>
-      <c r="H30" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G30&lt;=F30, 0, G30-F30)</f>
+      <c r="H30" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G30&gt;F30, G30-F30, 0)</f>
         <v>19</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I29</f>
         <v>10</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H30*I30</f>
         <v>190</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E30+J30</f>
         <v>2116.65</v>
       </c>
     </row>
     <row outlineLevel="0" r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A30+1</f>
         <v>29</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="0" t="n">
+      <c r="B31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C30-0.5</f>
         <v>56</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E31" s="0" t="n">
+      <c r="D31" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D30</f>
+        <v>34.1</v>
+      </c>
+      <c r="E31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C31*D31</f>
         <v>1909.6</v>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F30</f>
         <v>44813</v>
       </c>
-      <c r="G31" s="5" t="n">
+      <c r="G31" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G30+1</f>
         <v>44833</v>
       </c>
-      <c r="H31" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G31&lt;=F31, 0, G31-F31)</f>
+      <c r="H31" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G31&gt;F31, G31-F31, 0)</f>
         <v>20</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I30</f>
         <v>10</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H31*I31</f>
         <v>200</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E31+J31</f>
         <v>2109.6</v>
       </c>
     </row>
     <row outlineLevel="0" r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A31+1</f>
         <v>30</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="0" t="n">
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C31-0.5</f>
         <v>55.5</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E32" s="0" t="n">
+      <c r="D32" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D31</f>
+        <v>34.1</v>
+      </c>
+      <c r="E32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C32*D32</f>
         <v>1892.55</v>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F31</f>
         <v>44813</v>
       </c>
-      <c r="G32" s="5" t="n">
+      <c r="G32" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G31+1</f>
         <v>44834</v>
       </c>
-      <c r="H32" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G32&lt;=F32, 0, G32-F32)</f>
+      <c r="H32" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G32&gt;F32, G32-F32, 0)</f>
         <v>21</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I31</f>
         <v>10</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H32*I32</f>
         <v>210</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E32+J32</f>
         <v>2102.55</v>
       </c>
     </row>
     <row outlineLevel="0" r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A32+1</f>
         <v>31</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="0" t="n">
+      <c r="B33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C32-0.5</f>
         <v>55</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E33" s="0" t="n">
+      <c r="D33" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D32</f>
+        <v>34.1</v>
+      </c>
+      <c r="E33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C33*D33</f>
         <v>1875.5</v>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F32</f>
         <v>44813</v>
       </c>
-      <c r="G33" s="5" t="n">
+      <c r="G33" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G32+1</f>
         <v>44835</v>
       </c>
-      <c r="H33" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G33&lt;=F33, 0, G33-F33)</f>
+      <c r="H33" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G33&gt;F33, G33-F33, 0)</f>
         <v>22</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I32</f>
         <v>10</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H33*I33</f>
         <v>220</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E33+J33</f>
         <v>2095.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A33+1</f>
         <v>32</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="0" t="n">
+      <c r="B34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C33-0.5</f>
         <v>54.5</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
-        <v>34.1</v>
-      </c>
-      <c r="E34" s="0" t="n">
+      <c r="D34" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D33</f>
+        <v>34.1</v>
+      </c>
+      <c r="E34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C34*D34</f>
         <v>1858.45</v>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F33</f>
         <v>44813</v>
       </c>
-      <c r="G34" s="5" t="n">
+      <c r="G34" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G33+1</f>
         <v>44836</v>
       </c>
-      <c r="H34" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G34&lt;=F34, 0, G34-F34)</f>
+      <c r="H34" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G34&gt;F34, G34-F34, 0)</f>
         <v>23</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I33</f>
         <v>10</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H34*I34</f>
         <v>230</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E34+J34</f>
         <v>2088.45</v>
       </c>
     </row>
     <row outlineLevel="0" r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A34+1</f>
         <v>33</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="0" t="n">
+      <c r="B35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C34-0.5</f>
         <v>54</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1/2</f>
+      <c r="D35" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
         <v>17.05</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C35*D35</f>
         <v>920.7</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F34</f>
         <v>44813</v>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="G35" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G34+1</f>
         <v>44837</v>
       </c>
-      <c r="H35" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G35&lt;=F35, 0, G35-F35)</f>
+      <c r="H35" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G35&gt;F35, G35-F35, 0)</f>
         <v>24</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I34</f>
         <v>10</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H35*I35</f>
         <v>240</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E35+J35</f>
         <v>1160.7</v>
       </c>
     </row>
     <row outlineLevel="0" r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A35+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="0" t="n">
+      <c r="B36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C35-0.5</f>
         <v>53.5</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1/2</f>
+      <c r="D36" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
         <v>17.05</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C36*D36</f>
         <v>912.175</v>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F35</f>
         <v>44813</v>
       </c>
-      <c r="G36" s="5" t="n">
+      <c r="G36" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G35+1</f>
         <v>44838</v>
       </c>
-      <c r="H36" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G36&lt;=F36, 0, G36-F36)</f>
+      <c r="H36" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G36&gt;F36, G36-F36, 0)</f>
         <v>25</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I35</f>
         <v>10</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H36*I36</f>
         <v>250</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E36+J36</f>
         <v>1162.175</v>
       </c>
     </row>
     <row outlineLevel="0" r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="0" t="n">
+      <c r="B37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C36-0.5</f>
         <v>53</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1/2</f>
+      <c r="D37" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
         <v>17.05</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C37*D37</f>
         <v>903.65</v>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F36</f>
         <v>44813</v>
       </c>
-      <c r="G37" s="5" t="n">
+      <c r="G37" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G36+1</f>
         <v>44839</v>
       </c>
-      <c r="H37" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G37&lt;=F37, 0, G37-F37)</f>
+      <c r="H37" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G37&gt;F37, G37-F37, 0)</f>
         <v>26</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I36</f>
         <v>10</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H37*I37</f>
         <v>260</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="K37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E37+J37</f>
         <v>1163.65</v>
       </c>
     </row>
     <row outlineLevel="0" r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="0" t="n">
+      <c r="B38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C37-0.5</f>
         <v>52.5</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1/2</f>
+      <c r="D38" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
         <v>17.05</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C38*D38</f>
         <v>895.125</v>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F38" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F37</f>
         <v>44813</v>
       </c>
-      <c r="G38" s="5" t="n">
+      <c r="G38" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G37+1</f>
         <v>44840</v>
       </c>
-      <c r="H38" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G38&lt;=F38, 0, G38-F38)</f>
+      <c r="H38" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G38&gt;F38, G38-F38, 0)</f>
         <v>27</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="I38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I37</f>
         <v>10</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="J38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H38*I38</f>
         <v>270</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="K38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E38+J38</f>
         <v>1165.125</v>
       </c>
     </row>
-    <row outlineLevel="0" r="39">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="0" t="n"/>
-      <c r="C39" s="0" t="n"/>
-      <c r="D39" s="0" t="n"/>
-      <c r="E39" s="0" t="n"/>
-      <c r="F39" s="0" t="n"/>
-      <c r="G39" s="0" t="n"/>
-      <c r="H39" s="0" t="n"/>
-      <c r="I39" s="0" t="n"/>
-      <c r="J39" s="0" t="n"/>
-      <c r="K39" s="0" t="n"/>
-    </row>
     <row outlineLevel="0" r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="0" t="n">
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">FLOOR(SUM(K3:K38), 1)</f>
         <v>75338</v>
       </c>
-      <c r="D40" s="0" t="n"/>
-      <c r="E40" s="0" t="n"/>
-      <c r="F40" s="0" t="n"/>
-      <c r="G40" s="0" t="n"/>
-      <c r="H40" s="0" t="n"/>
-      <c r="I40" s="0" t="n"/>
-      <c r="J40" s="0" t="n"/>
-      <c r="K40" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="0" t="n">
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="D41" s="0" t="n"/>
-      <c r="E41" s="0" t="n"/>
-      <c r="F41" s="0" t="n"/>
-      <c r="G41" s="0" t="n"/>
-      <c r="H41" s="0" t="n"/>
-      <c r="I41" s="0" t="n"/>
-      <c r="J41" s="0" t="n"/>
-      <c r="K41" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="42">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="0" t="n">
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="D42" s="0" t="n"/>
-      <c r="E42" s="0" t="n"/>
-      <c r="F42" s="0" t="n"/>
-      <c r="G42" s="0" t="n"/>
-      <c r="H42" s="0" t="n"/>
-      <c r="I42" s="0" t="n"/>
-      <c r="J42" s="0" t="n"/>
-      <c r="K42" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="43">
-      <c r="A43" s="1" t="n"/>
-      <c r="B43" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="0" t="n">
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3:K38)</f>
         <v>2387</v>
       </c>
-      <c r="D43" s="0" t="n"/>
-      <c r="E43" s="0" t="n"/>
-      <c r="F43" s="0" t="n"/>
-      <c r="G43" s="0" t="n"/>
-      <c r="H43" s="0" t="n"/>
-      <c r="I43" s="0" t="n"/>
-      <c r="J43" s="0" t="n"/>
-      <c r="K43" s="0" t="n"/>
-    </row>
-    <row outlineLevel="0" r="47">
-      <c r="B47" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>

--- a/LR3/table_1_31.xlsx
+++ b/LR3/table_1_31.xlsx
@@ -45,61 +45,64 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Авад</t>
-  </si>
-  <si>
-    <t>Ахтарьянов</t>
-  </si>
-  <si>
-    <t>Габидуллин</t>
-  </si>
-  <si>
-    <t>Гуссамов</t>
-  </si>
-  <si>
-    <t>Ефарова</t>
-  </si>
-  <si>
-    <t>Измайлов</t>
-  </si>
-  <si>
-    <t>Мирзагитова</t>
-  </si>
-  <si>
-    <t>Мохамед</t>
-  </si>
-  <si>
-    <t>Нуруллина</t>
-  </si>
-  <si>
-    <t>Пермяков</t>
-  </si>
-  <si>
-    <t>Ратушин</t>
-  </si>
-  <si>
-    <t>Сидорин</t>
-  </si>
-  <si>
-    <t>Сулейманов</t>
-  </si>
-  <si>
-    <t>Тухбатуллин</t>
-  </si>
-  <si>
-    <t>Хакимов</t>
-  </si>
-  <si>
-    <t>Шаймарданов</t>
-  </si>
-  <si>
-    <t>Шакиров</t>
-  </si>
-  <si>
-    <t>Шамсутдинова</t>
-  </si>
-  <si>
-    <t>Юмагужин</t>
+    <t>Аминова</t>
+  </si>
+  <si>
+    <t>Байрамшин</t>
+  </si>
+  <si>
+    <t>Башкирова</t>
+  </si>
+  <si>
+    <t>Гагаркин</t>
+  </si>
+  <si>
+    <t>Гайнуллина</t>
+  </si>
+  <si>
+    <t>Галиаскаров</t>
+  </si>
+  <si>
+    <t>Гареева</t>
+  </si>
+  <si>
+    <t>Дуболазов</t>
+  </si>
+  <si>
+    <t>Лучин</t>
+  </si>
+  <si>
+    <t>Матижева</t>
+  </si>
+  <si>
+    <t>Мифтахов</t>
+  </si>
+  <si>
+    <t>Нугъманов</t>
+  </si>
+  <si>
+    <t>Проскура</t>
+  </si>
+  <si>
+    <t>Рафиков</t>
+  </si>
+  <si>
+    <t>Рахматулов</t>
+  </si>
+  <si>
+    <t>Смирнова</t>
+  </si>
+  <si>
+    <t>Соловьев</t>
+  </si>
+  <si>
+    <t>Спирина</t>
+  </si>
+  <si>
+    <t>Хайруллин</t>
+  </si>
+  <si>
+    <t>Харисов</t>
   </si>
   <si>
     <t>Куропаткин 1</t>
@@ -169,7 +172,7 @@
   <numFmts>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <color theme="1" tint="0"/>
@@ -183,11 +186,6 @@
     <font>
       <name val="Times New Roman"/>
       <color theme="1" tint="0"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <color rgb="282C34" tint="0"/>
       <sz val="12"/>
     </font>
   </fonts>
@@ -211,17 +209,14 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center"/>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="14" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="14" quotePrefix="false"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -440,20 +435,17 @@
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="8.85546864361033" defaultRowHeight="15.75" zeroHeight="false"/>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="9.16406226871811" defaultRowHeight="16" zeroHeight="false"/>
   <cols>
-    <col customWidth="true" max="1" min="1" outlineLevel="0" style="1" width="24.8554679669456"/>
-    <col customWidth="true" max="2" min="2" outlineLevel="0" style="1" width="36.2851553123171"/>
-    <col customWidth="true" max="3" min="3" outlineLevel="0" style="1" width="21.7109379638854"/>
-    <col customWidth="true" max="4" min="4" outlineLevel="0" style="1" width="21.5703121471299"/>
-    <col customWidth="true" max="5" min="5" outlineLevel="0" style="1" width="14.2851556506495"/>
-    <col customWidth="true" max="6" min="6" outlineLevel="0" style="1" width="23.5703138387917"/>
-    <col customWidth="true" max="7" min="7" outlineLevel="0" style="1" width="19.2851558198157"/>
-    <col customWidth="true" max="8" min="8" outlineLevel="0" style="1" width="25.7109372872207"/>
-    <col customWidth="true" max="9" min="9" outlineLevel="0" style="1" width="22.7109388097163"/>
-    <col customWidth="true" max="10" min="10" outlineLevel="0" style="1" width="17.4257812982388"/>
-    <col customWidth="true" max="11" min="11" outlineLevel="0" style="1" width="18.2851563273142"/>
-    <col customWidth="true" max="16384" min="12" outlineLevel="0" style="1" width="8.85546864361033"/>
+    <col customWidth="true" max="1" min="1" outlineLevel="0" style="1" width="17.6640620149688"/>
+    <col customWidth="true" max="2" min="2" outlineLevel="0" style="1" width="40.6640611691379"/>
+    <col customWidth="true" max="4" min="3" outlineLevel="0" style="1" width="20.6640618458027"/>
+    <col customWidth="true" max="5" min="5" outlineLevel="0" style="1" width="15.6640630299659"/>
+    <col customWidth="true" max="6" min="6" outlineLevel="0" style="2" width="20.6640618458027"/>
+    <col customWidth="true" max="7" min="7" outlineLevel="0" style="1" width="20.6640618458027"/>
+    <col customWidth="true" max="9" min="8" outlineLevel="0" style="1" width="18.6640628607997"/>
+    <col customWidth="true" max="11" min="10" outlineLevel="0" style="1" width="15.6640630299659"/>
+    <col customWidth="true" max="16384" min="12" outlineLevel="0" style="1" width="9.16406226871811"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -461,43 +453,43 @@
         <v>31</v>
       </c>
     </row>
-    <row customFormat="true" ht="15.75" outlineLevel="0" r="2" s="2">
-      <c r="A2" s="2" t="s">
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -507,17 +499,17 @@
         <v>70</v>
       </c>
       <c r="D3" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$A$1*1.1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A1*1.1</f>
         <v>34.1</v>
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C3*D3</f>
         <v>2387</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="4" t="n">
+      <c r="F3" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>44805</v>
       </c>
       <c r="H3" s="1" t="n">
@@ -537,7 +529,7 @@
       </c>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A3+1</f>
         <v>2</v>
       </c>
@@ -556,11 +548,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C4*D4</f>
         <v>2369.95</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G3+1</f>
         <v>44806</v>
       </c>
@@ -569,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I3</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1" t="n">
@@ -582,7 +574,7 @@
       </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A4+1</f>
         <v>3</v>
       </c>
@@ -601,11 +593,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C5*D5</f>
         <v>2352.9</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G4+1</f>
         <v>44807</v>
       </c>
@@ -614,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I4</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1" t="n">
@@ -627,7 +619,7 @@
       </c>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A5+1</f>
         <v>4</v>
       </c>
@@ -646,11 +638,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C6*D6</f>
         <v>2335.85</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F5</f>
         <v>44813</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G5+1</f>
         <v>44808</v>
       </c>
@@ -659,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I5</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J6" s="1" t="n">
@@ -672,7 +664,7 @@
       </c>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A6+1</f>
         <v>5</v>
       </c>
@@ -691,11 +683,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C7*D7</f>
         <v>2318.8</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F6</f>
         <v>44813</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G6+1</f>
         <v>44809</v>
       </c>
@@ -704,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I6</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J7" s="1" t="n">
@@ -717,7 +709,7 @@
       </c>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A7+1</f>
         <v>6</v>
       </c>
@@ -736,11 +728,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C8*D8</f>
         <v>2301.75</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F7</f>
         <v>44813</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G7+1</f>
         <v>44810</v>
       </c>
@@ -749,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I7</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J8" s="1" t="n">
@@ -762,7 +754,7 @@
       </c>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A8+1</f>
         <v>7</v>
       </c>
@@ -781,11 +773,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C9*D9</f>
         <v>2284.7</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F8</f>
         <v>44813</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G8+1</f>
         <v>44811</v>
       </c>
@@ -794,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I8</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J9" s="1" t="n">
@@ -807,7 +799,7 @@
       </c>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A9+1</f>
         <v>8</v>
       </c>
@@ -826,11 +818,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C10*D10</f>
         <v>2267.65</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F9</f>
         <v>44813</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G9+1</f>
         <v>44812</v>
       </c>
@@ -839,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I9</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J10" s="1" t="n">
@@ -852,12 +844,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A10+1</f>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C10-0.5</f>
@@ -871,11 +863,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C11*D11</f>
         <v>2250.6</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F10</f>
         <v>44813</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G10+1</f>
         <v>44813</v>
       </c>
@@ -884,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I10</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J11" s="1" t="n">
@@ -897,12 +889,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C11-0.5</f>
@@ -916,11 +908,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C12*D12</f>
         <v>2233.55</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F11</f>
         <v>44813</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G11+1</f>
         <v>44814</v>
       </c>
@@ -929,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I11</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J12" s="1" t="n">
@@ -942,12 +934,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C12-0.5</f>
@@ -961,11 +953,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C13*D13</f>
         <v>2216.5</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F12</f>
         <v>44813</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G12+1</f>
         <v>44815</v>
       </c>
@@ -974,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I12</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J13" s="1" t="n">
@@ -987,12 +979,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C13-0.5</f>
@@ -1006,11 +998,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C14*D14</f>
         <v>2199.45</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F13</f>
         <v>44813</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G13+1</f>
         <v>44816</v>
       </c>
@@ -1019,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I13</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J14" s="1" t="n">
@@ -1032,12 +1024,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A14+1</f>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C14-0.5</f>
@@ -1051,11 +1043,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C15*D15</f>
         <v>2182.4</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F14</f>
         <v>44813</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G14+1</f>
         <v>44817</v>
       </c>
@@ -1064,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I14</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J15" s="1" t="n">
@@ -1077,12 +1069,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A15+1</f>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C15-0.5</f>
@@ -1096,11 +1088,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C16*D16</f>
         <v>2165.35</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F15</f>
         <v>44813</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G15+1</f>
         <v>44818</v>
       </c>
@@ -1109,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I15</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J16" s="1" t="n">
@@ -1122,12 +1114,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A16+1</f>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C16-0.5</f>
@@ -1141,11 +1133,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C17*D17</f>
         <v>2148.3</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F16</f>
         <v>44813</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G16+1</f>
         <v>44819</v>
       </c>
@@ -1154,7 +1146,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I16</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J17" s="1" t="n">
@@ -1167,12 +1159,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A17+1</f>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C17-0.5</f>
@@ -1186,11 +1178,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C18*D18</f>
         <v>2131.25</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F17</f>
         <v>44813</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G17+1</f>
         <v>44820</v>
       </c>
@@ -1199,7 +1191,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I17</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J18" s="1" t="n">
@@ -1212,12 +1204,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A18+1</f>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C18-0.5</f>
@@ -1231,11 +1223,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C19*D19</f>
         <v>2114.2</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F18</f>
         <v>44813</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G18+1</f>
         <v>44821</v>
       </c>
@@ -1244,7 +1236,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I18</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J19" s="1" t="n">
@@ -1257,12 +1249,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A19+1</f>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C19-0.5</f>
@@ -1276,11 +1268,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C20*D20</f>
         <v>2097.15</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F19</f>
         <v>44813</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G19+1</f>
         <v>44822</v>
       </c>
@@ -1289,7 +1281,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I19</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J20" s="1" t="n">
@@ -1302,12 +1294,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A20+1</f>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C20-0.5</f>
@@ -1321,11 +1313,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C21*D21</f>
         <v>2080.1</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F20</f>
         <v>44813</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G20+1</f>
         <v>44823</v>
       </c>
@@ -1334,7 +1326,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I20</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J21" s="1" t="n">
@@ -1347,12 +1339,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A21+1</f>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C21-0.5</f>
@@ -1366,11 +1358,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C22*D22</f>
         <v>2063.05</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F21</f>
         <v>44813</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G21+1</f>
         <v>44824</v>
       </c>
@@ -1379,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I21</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J22" s="1" t="n">
@@ -1392,12 +1384,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A22+1</f>
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>30</v>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C22-0.5</f>
@@ -1411,11 +1403,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C23*D23</f>
         <v>2046</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F22</f>
         <v>44813</v>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G22+1</f>
         <v>44825</v>
       </c>
@@ -1424,7 +1416,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I22</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J23" s="1" t="n">
@@ -1437,12 +1429,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A23+1</f>
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>31</v>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C23-0.5</f>
@@ -1456,11 +1448,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C24*D24</f>
         <v>2028.95</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F24" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F23</f>
         <v>44813</v>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G23+1</f>
         <v>44826</v>
       </c>
@@ -1469,7 +1461,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I23</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J24" s="1" t="n">
@@ -1482,12 +1474,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="25">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A24+1</f>
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>32</v>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C24-0.5</f>
@@ -1501,11 +1493,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C25*D25</f>
         <v>2011.9</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F24</f>
         <v>44813</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G24+1</f>
         <v>44827</v>
       </c>
@@ -1514,7 +1506,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I24</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J25" s="1" t="n">
@@ -1527,12 +1519,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="26">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>33</v>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C25-0.5</f>
@@ -1546,11 +1538,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C26*D26</f>
         <v>1994.85</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F25</f>
         <v>44813</v>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G25+1</f>
         <v>44828</v>
       </c>
@@ -1559,7 +1551,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I25</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J26" s="1" t="n">
@@ -1572,12 +1564,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="27">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>34</v>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C26-0.5</f>
@@ -1591,11 +1583,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C27*D27</f>
         <v>1977.8</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F26</f>
         <v>44813</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G26+1</f>
         <v>44829</v>
       </c>
@@ -1604,7 +1596,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I26</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J27" s="1" t="n">
@@ -1617,12 +1609,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="28">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A27+1</f>
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>35</v>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C27-0.5</f>
@@ -1636,11 +1628,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C28*D28</f>
         <v>1960.75</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F27</f>
         <v>44813</v>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G27+1</f>
         <v>44830</v>
       </c>
@@ -1649,7 +1641,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I27</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J28" s="1" t="n">
@@ -1662,12 +1654,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="29">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A28+1</f>
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>36</v>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C28-0.5</f>
@@ -1681,11 +1673,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C29*D29</f>
         <v>1943.7</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F28</f>
         <v>44813</v>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G28+1</f>
         <v>44831</v>
       </c>
@@ -1694,7 +1686,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I28</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J29" s="1" t="n">
@@ -1707,12 +1699,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="30">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A29+1</f>
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>37</v>
+      <c r="B30" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C29-0.5</f>
@@ -1726,11 +1718,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C30*D30</f>
         <v>1926.65</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F29</f>
         <v>44813</v>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="G30" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G29+1</f>
         <v>44832</v>
       </c>
@@ -1739,7 +1731,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I29</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J30" s="1" t="n">
@@ -1752,12 +1744,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="31">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A30+1</f>
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>38</v>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C30-0.5</f>
@@ -1771,11 +1763,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C31*D31</f>
         <v>1909.6</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F30</f>
         <v>44813</v>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G31" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G30+1</f>
         <v>44833</v>
       </c>
@@ -1784,7 +1776,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I30</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J31" s="1" t="n">
@@ -1797,12 +1789,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="32">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A31+1</f>
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>39</v>
+      <c r="B32" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C31-0.5</f>
@@ -1816,11 +1808,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C32*D32</f>
         <v>1892.55</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F31</f>
         <v>44813</v>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="G32" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G31+1</f>
         <v>44834</v>
       </c>
@@ -1829,7 +1821,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I31</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J32" s="1" t="n">
@@ -1842,12 +1834,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="33">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A32+1</f>
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>40</v>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C32-0.5</f>
@@ -1861,11 +1853,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C33*D33</f>
         <v>1875.5</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F32</f>
         <v>44813</v>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="G33" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G32+1</f>
         <v>44835</v>
       </c>
@@ -1874,7 +1866,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I32</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J33" s="1" t="n">
@@ -1887,12 +1879,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="34">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A33+1</f>
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>41</v>
+      <c r="B34" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C33-0.5</f>
@@ -1906,11 +1898,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C34*D34</f>
         <v>1858.45</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F33</f>
         <v>44813</v>
       </c>
-      <c r="G34" s="4" t="n">
+      <c r="G34" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G33+1</f>
         <v>44836</v>
       </c>
@@ -1919,7 +1911,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I33</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J34" s="1" t="n">
@@ -1932,12 +1924,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="35">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A34+1</f>
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>42</v>
+      <c r="B35" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C34-0.5</f>
@@ -1951,11 +1943,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C35*D35</f>
         <v>920.7</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="F35" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F34</f>
         <v>44813</v>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="G35" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G34+1</f>
         <v>44837</v>
       </c>
@@ -1964,7 +1956,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I34</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J35" s="1" t="n">
@@ -1977,12 +1969,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="36">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A35+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>43</v>
+      <c r="B36" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C35-0.5</f>
@@ -1996,11 +1988,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C36*D36</f>
         <v>912.175</v>
       </c>
-      <c r="F36" s="4" t="n">
+      <c r="F36" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F35</f>
         <v>44813</v>
       </c>
-      <c r="G36" s="4" t="n">
+      <c r="G36" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G35+1</f>
         <v>44838</v>
       </c>
@@ -2009,7 +2001,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I35</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J36" s="1" t="n">
@@ -2022,12 +2014,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="37">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>44</v>
+      <c r="B37" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C36-0.5</f>
@@ -2041,11 +2033,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C37*D37</f>
         <v>903.65</v>
       </c>
-      <c r="F37" s="4" t="n">
+      <c r="F37" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F36</f>
         <v>44813</v>
       </c>
-      <c r="G37" s="4" t="n">
+      <c r="G37" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G36+1</f>
         <v>44839</v>
       </c>
@@ -2054,7 +2046,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I36</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J37" s="1" t="n">
@@ -2067,12 +2059,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="38">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>45</v>
+      <c r="B38" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C37-0.5</f>
@@ -2086,11 +2078,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C38*D38</f>
         <v>895.125</v>
       </c>
-      <c r="F38" s="4" t="n">
+      <c r="F38" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F37</f>
         <v>44813</v>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="G38" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G37+1</f>
         <v>44840</v>
       </c>
@@ -2099,7 +2091,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I37</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J38" s="1" t="n">
@@ -2113,7 +2105,7 @@
     </row>
     <row outlineLevel="0" r="40">
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">FLOOR(SUM(K3:K38), 1)</f>
@@ -2122,7 +2114,7 @@
     </row>
     <row outlineLevel="0" r="41">
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">AVERAGE(C3:C38)</f>
@@ -2131,7 +2123,7 @@
     </row>
     <row outlineLevel="0" r="42">
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(H3:H38)</f>
@@ -2140,7 +2132,7 @@
     </row>
     <row outlineLevel="0" r="43">
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3:K38)</f>

--- a/LR3/table_1_31.xlsx
+++ b/LR3/table_1_31.xlsx
@@ -513,7 +513,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G3&gt;F3, G3-F3, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G3&lt;=F3, 0, G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
@@ -557,7 +557,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G4&gt;F4, G4-F4, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G4&lt;=F4, 0, G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
@@ -602,7 +602,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G5&gt;F5, G5-F5, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G5&lt;=F5, 0, G5-F5)</f>
         <v>0</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -647,7 +647,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G6&gt;F6, G6-F6, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G6&lt;=F6, 0, G6-F6)</f>
         <v>0</v>
       </c>
       <c r="I6" s="1" t="n">
@@ -692,7 +692,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G7&gt;F7, G7-F7, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G7&lt;=F7, 0, G7-F7)</f>
         <v>0</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -737,7 +737,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G8&gt;F8, G8-F8, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G8&lt;=F8, 0, G8-F8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="1" t="n">
@@ -782,7 +782,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G9&gt;F9, G9-F9, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G9&lt;=F9, 0, G9-F9)</f>
         <v>0</v>
       </c>
       <c r="I9" s="1" t="n">
@@ -827,7 +827,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G10&gt;F10, G10-F10, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G10&lt;=F10, 0, G10-F10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -872,7 +872,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G11&gt;F11, G11-F11, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G11&lt;=F11, 0, G11-F11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="1" t="n">
@@ -917,7 +917,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G12&gt;F12, G12-F12, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G12&lt;=F12, 0, G12-F12)</f>
         <v>1</v>
       </c>
       <c r="I12" s="1" t="n">
@@ -962,7 +962,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G13&gt;F13, G13-F13, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G13&lt;=F13, 0, G13-F13)</f>
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
@@ -1007,7 +1007,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G14&gt;F14, G14-F14, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G14&lt;=F14, 0, G14-F14)</f>
         <v>3</v>
       </c>
       <c r="I14" s="1" t="n">
@@ -1052,7 +1052,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G15&gt;F15, G15-F15, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G15&lt;=F15, 0, G15-F15)</f>
         <v>4</v>
       </c>
       <c r="I15" s="1" t="n">
@@ -1097,7 +1097,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G16&gt;F16, G16-F16, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G16&lt;=F16, 0, G16-F16)</f>
         <v>5</v>
       </c>
       <c r="I16" s="1" t="n">
@@ -1142,7 +1142,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G17&gt;F17, G17-F17, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G17&lt;=F17, 0, G17-F17)</f>
         <v>6</v>
       </c>
       <c r="I17" s="1" t="n">
@@ -1187,7 +1187,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G18&gt;F18, G18-F18, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G18&lt;=F18, 0, G18-F18)</f>
         <v>7</v>
       </c>
       <c r="I18" s="1" t="n">
@@ -1232,7 +1232,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G19&gt;F19, G19-F19, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G19&lt;=F19, 0, G19-F19)</f>
         <v>8</v>
       </c>
       <c r="I19" s="1" t="n">
@@ -1277,7 +1277,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G20&gt;F20, G20-F20, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G20&lt;=F20, 0, G20-F20)</f>
         <v>9</v>
       </c>
       <c r="I20" s="1" t="n">
@@ -1322,7 +1322,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G21&gt;F21, G21-F21, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G21&lt;=F21, 0, G21-F21)</f>
         <v>10</v>
       </c>
       <c r="I21" s="1" t="n">
@@ -1367,7 +1367,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G22&gt;F22, G22-F22, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G22&lt;=F22, 0, G22-F22)</f>
         <v>11</v>
       </c>
       <c r="I22" s="1" t="n">
@@ -1412,7 +1412,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G23&gt;F23, G23-F23, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G23&lt;=F23, 0, G23-F23)</f>
         <v>12</v>
       </c>
       <c r="I23" s="1" t="n">
@@ -1457,7 +1457,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G24&gt;F24, G24-F24, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G24&lt;=F24, 0, G24-F24)</f>
         <v>13</v>
       </c>
       <c r="I24" s="1" t="n">
@@ -1502,7 +1502,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G25&gt;F25, G25-F25, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G25&lt;=F25, 0, G25-F25)</f>
         <v>14</v>
       </c>
       <c r="I25" s="1" t="n">
@@ -1547,7 +1547,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G26&gt;F26, G26-F26, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G26&lt;=F26, 0, G26-F26)</f>
         <v>15</v>
       </c>
       <c r="I26" s="1" t="n">
@@ -1592,7 +1592,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G27&gt;F27, G27-F27, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G27&lt;=F27, 0, G27-F27)</f>
         <v>16</v>
       </c>
       <c r="I27" s="1" t="n">
@@ -1637,7 +1637,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G28&gt;F28, G28-F28, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G28&lt;=F28, 0, G28-F28)</f>
         <v>17</v>
       </c>
       <c r="I28" s="1" t="n">
@@ -1682,7 +1682,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G29&gt;F29, G29-F29, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G29&lt;=F29, 0, G29-F29)</f>
         <v>18</v>
       </c>
       <c r="I29" s="1" t="n">
@@ -1727,7 +1727,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G30&gt;F30, G30-F30, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G30&lt;=F30, 0, G30-F30)</f>
         <v>19</v>
       </c>
       <c r="I30" s="1" t="n">
@@ -1772,7 +1772,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G31&gt;F31, G31-F31, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G31&lt;=F31, 0, G31-F31)</f>
         <v>20</v>
       </c>
       <c r="I31" s="1" t="n">
@@ -1817,7 +1817,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G32&gt;F32, G32-F32, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G32&lt;=F32, 0, G32-F32)</f>
         <v>21</v>
       </c>
       <c r="I32" s="1" t="n">
@@ -1862,7 +1862,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G33&gt;F33, G33-F33, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G33&lt;=F33, 0, G33-F33)</f>
         <v>22</v>
       </c>
       <c r="I33" s="1" t="n">
@@ -1907,7 +1907,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G34&gt;F34, G34-F34, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G34&lt;=F34, 0, G34-F34)</f>
         <v>23</v>
       </c>
       <c r="I34" s="1" t="n">
@@ -1952,7 +1952,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G35&gt;F35, G35-F35, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G35&lt;=F35, 0, G35-F35)</f>
         <v>24</v>
       </c>
       <c r="I35" s="1" t="n">
@@ -1997,7 +1997,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G36&gt;F36, G36-F36, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G36&lt;=F36, 0, G36-F36)</f>
         <v>25</v>
       </c>
       <c r="I36" s="1" t="n">
@@ -2042,7 +2042,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G37&gt;F37, G37-F37, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G37&lt;=F37, 0, G37-F37)</f>
         <v>26</v>
       </c>
       <c r="I37" s="1" t="n">
@@ -2087,7 +2087,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G38&gt;F38, G38-F38, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G38&lt;=F38, 0, G38-F38)</f>
         <v>27</v>
       </c>
       <c r="I38" s="1" t="n">
